--- a/AMZN_3Statement_Model_FY23-30.xlsx
+++ b/AMZN_3Statement_Model_FY23-30.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/work - modelling - WSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D10A7B91-A95A-40FA-BFA2-F42471783665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1909F4EF-6B20-44B1-BBEE-F0D9108CD490}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2B9263-A5DB-4BFF-B2F8-C6B14D5FAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8BAA2623-3DED-4805-BF7A-B8321F85ACFE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8BAA2623-3DED-4805-BF7A-B8321F85ACFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3SFM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -42,7 +42,7 @@
     <author>saphal</author>
   </authors>
   <commentList>
-    <comment ref="M105" authorId="0" shapeId="0" xr:uid="{0CB2EE60-5F78-4CE8-8A58-E9C2E38D3BAC}">
+    <comment ref="L105" authorId="0" shapeId="0" xr:uid="{0CB2EE60-5F78-4CE8-8A58-E9C2E38D3BAC}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D138" authorId="1" shapeId="0" xr:uid="{EEC820D0-89F0-41AE-BB83-1436D06EFC67}">
+    <comment ref="C138" authorId="1" shapeId="0" xr:uid="{EEC820D0-89F0-41AE-BB83-1436D06EFC67}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="1" shapeId="0" xr:uid="{3E05A42D-9527-40D9-8660-AEEFDCBFC0B4}">
+    <comment ref="D138" authorId="1" shapeId="0" xr:uid="{3E05A42D-9527-40D9-8660-AEEFDCBFC0B4}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F138" authorId="1" shapeId="0" xr:uid="{83A1A68B-7D84-4693-BB15-D60D44E8B198}">
+    <comment ref="E138" authorId="1" shapeId="0" xr:uid="{83A1A68B-7D84-4693-BB15-D60D44E8B198}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G192" authorId="0" shapeId="0" xr:uid="{791D68CA-8773-4DC6-94FF-5E16EBCF76BA}">
+    <comment ref="F192" authorId="0" shapeId="0" xr:uid="{791D68CA-8773-4DC6-94FF-5E16EBCF76BA}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H193" authorId="1" shapeId="0" xr:uid="{95BE75C1-3181-4F9E-95A6-A09116DB50F7}">
+    <comment ref="G193" authorId="1" shapeId="0" xr:uid="{95BE75C1-3181-4F9E-95A6-A09116DB50F7}">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="1" shapeId="0" xr:uid="{54311151-EDEA-4226-A5FE-B9999456768D}">
+    <comment ref="H193" authorId="1" shapeId="0" xr:uid="{54311151-EDEA-4226-A5FE-B9999456768D}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J193" authorId="1" shapeId="0" xr:uid="{B069265C-0324-4C10-9443-430B62BBF607}">
+    <comment ref="I193" authorId="1" shapeId="0" xr:uid="{B069265C-0324-4C10-9443-430B62BBF607}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K193" authorId="1" shapeId="0" xr:uid="{4548D42B-1E19-4CE9-BC1D-80CB842E19D5}">
+    <comment ref="J193" authorId="1" shapeId="0" xr:uid="{4548D42B-1E19-4CE9-BC1D-80CB842E19D5}">
       <text>
         <r>
           <rPr>
@@ -244,9 +244,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
   <si>
-    <t>$ in thousands except per share</t>
-  </si>
-  <si>
     <t>Company name</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>yoy % growth in net income</t>
+  </si>
+  <si>
+    <t>$ mm except per share</t>
   </si>
 </sst>
 </file>
@@ -1221,121 +1221,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1404,10 +1290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1727,34 +1609,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980B01A-D0E2-401F-B75B-7EF560E59C5D}">
-  <dimension ref="C1:T204"/>
+  <dimension ref="B1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="60.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.86328125" customWidth="1"/>
+    <col min="11" max="11" width="1.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="str">
-        <f>"Financial Statement Model for "&amp;D5</f>
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="str">
+        <f>"Financial Statement Model for "&amp;C5</f>
         <v>Financial Statement Model for Amazon</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1762,90 +1642,90 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="8">
+        <v>210.32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8">
-        <v>210.32</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="9">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
-        <v>46059</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
-        <v>46022</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="11">
+        <v>10734.92087</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
-        <v>10734.92087</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1853,291 +1733,294 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>13</v>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="15">
+        <f>D15-1</f>
+        <v>2023</v>
       </c>
       <c r="D15" s="15">
         <f>E15-1</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E15" s="15">
-        <f>F15-1</f>
-        <v>2024</v>
-      </c>
-      <c r="F15" s="15">
-        <f>YEAR(D10)</f>
+        <f>YEAR(C10)</f>
         <v>2025</v>
+      </c>
+      <c r="F15" s="16">
+        <f>E15+1</f>
+        <v>2026</v>
       </c>
       <c r="G15" s="16">
         <f>F15+1</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H15" s="16">
         <f>G15+1</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I15" s="16">
         <f>H15+1</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J15" s="16">
         <f>I15+1</f>
-        <v>2029</v>
-      </c>
-      <c r="K15" s="16">
-        <f>J15+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>14</v>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18">
+        <f>EOMONTH(D16,-12)</f>
+        <v>45291</v>
       </c>
       <c r="D16" s="18">
         <f>EOMONTH(E16,-12)</f>
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="E16" s="18">
-        <f>EOMONTH(F16,-12)</f>
-        <v>45657</v>
+        <f>C10</f>
+        <v>46022</v>
       </c>
       <c r="F16" s="18">
-        <f>D10</f>
-        <v>46022</v>
+        <f>EOMONTH(E16,12)</f>
+        <v>46387</v>
       </c>
       <c r="G16" s="18">
         <f>EOMONTH(F16,12)</f>
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="H16" s="18">
         <f>EOMONTH(G16,12)</f>
-        <v>46752</v>
+        <v>47118</v>
       </c>
       <c r="I16" s="18">
         <f>EOMONTH(H16,12)</f>
-        <v>47118</v>
+        <v>47483</v>
       </c>
       <c r="J16" s="18">
         <f>EOMONTH(I16,12)</f>
-        <v>47483</v>
-      </c>
-      <c r="K16" s="18">
-        <f>EOMONTH(J16,12)</f>
         <v>47848</v>
       </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>15</v>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21">
+        <v>574785</v>
       </c>
       <c r="D18" s="21">
-        <v>574785</v>
+        <v>637959</v>
       </c>
       <c r="E18" s="21">
-        <v>637959</v>
-      </c>
-      <c r="F18" s="21">
         <v>716924</v>
+      </c>
+      <c r="F18" s="25">
+        <f ca="1">E18*(1+F39)</f>
+        <v>805033.95960000006</v>
       </c>
       <c r="G18" s="25">
         <f ca="1">F18*(1+G39)</f>
-        <v>805033.95960000006</v>
+        <v>895519.77665904013</v>
       </c>
       <c r="H18" s="25">
         <f ca="1">G18*(1+H39)</f>
-        <v>895519.77665904013</v>
+        <v>1009161.2363170723</v>
       </c>
       <c r="I18" s="25">
         <f ca="1">H18*(1+I39)</f>
-        <v>1009161.2363170723</v>
+        <v>1137223.7972057087</v>
       </c>
       <c r="J18" s="25">
         <f ca="1">I18*(1+J39)</f>
-        <v>1137223.7972057087</v>
-      </c>
-      <c r="K18" s="25">
-        <f ca="1">J18*(1+K39)</f>
         <v>1281537.4970711132</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="21">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21">
         <f>-(304739+90619)</f>
         <v>-395358</v>
       </c>
-      <c r="E19" s="21">
+      <c r="D19" s="21">
         <f>-(326288+98505)</f>
         <v>-424793</v>
       </c>
-      <c r="F19" s="21">
+      <c r="E19" s="21">
         <f>-(356414+109074)</f>
         <v>-465488</v>
       </c>
+      <c r="F19" s="25">
+        <f ca="1">F20-F18</f>
+        <v>-522467.03978040005</v>
+      </c>
       <c r="G19" s="25">
         <f ca="1">G20-G18</f>
-        <v>-522467.03978040005</v>
+        <v>-573132.65706178569</v>
       </c>
       <c r="H19" s="25">
         <f ca="1">H20-H18</f>
-        <v>-573132.65706178569</v>
+        <v>-635771.57887975557</v>
       </c>
       <c r="I19" s="25">
         <f ca="1">I20-I18</f>
-        <v>-635771.57887975557</v>
+        <v>-716450.99223959656</v>
       </c>
       <c r="J19" s="25">
         <f ca="1">J20-J18</f>
-        <v>-716450.99223959656</v>
-      </c>
-      <c r="K19" s="25">
-        <f ca="1">K20-K18</f>
         <v>-807368.62315480132</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>17</v>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="26">
+        <f>SUM(C18:C19)</f>
+        <v>179427</v>
       </c>
       <c r="D20" s="26">
-        <f>SUM(D18:D19)</f>
-        <v>179427</v>
+        <f t="shared" ref="D20:E20" si="0">SUM(D18:D19)</f>
+        <v>213166</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" ref="E20:F20" si="0">SUM(E18:E19)</f>
-        <v>213166</v>
-      </c>
-      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>251436</v>
       </c>
+      <c r="F20" s="26">
+        <f ca="1">F18*F40</f>
+        <v>282566.91981960001</v>
+      </c>
       <c r="G20" s="26">
         <f ca="1">G18*G40</f>
-        <v>282566.91981960001</v>
+        <v>322387.11959725444</v>
       </c>
       <c r="H20" s="26">
         <f ca="1">H18*H40</f>
-        <v>322387.11959725444</v>
+        <v>373389.65743731672</v>
       </c>
       <c r="I20" s="26">
         <f ca="1">I18*I40</f>
-        <v>373389.65743731672</v>
+        <v>420772.80496611219</v>
       </c>
       <c r="J20" s="26">
         <f ca="1">J18*J40</f>
-        <v>420772.80496611219</v>
-      </c>
-      <c r="K20" s="26">
-        <f ca="1">K18*K40</f>
         <v>474168.87391631189</v>
       </c>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>18</v>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21">
+        <v>-85622</v>
       </c>
       <c r="D21" s="21">
-        <v>-85622</v>
+        <v>-88544</v>
       </c>
       <c r="E21" s="21">
-        <v>-88544</v>
-      </c>
-      <c r="F21" s="21">
         <v>-108521</v>
+      </c>
+      <c r="F21" s="25">
+        <f ca="1">-F41*F18</f>
+        <v>-120755.09394000001</v>
       </c>
       <c r="G21" s="25">
         <f ca="1">-G41*G18</f>
-        <v>-120755.09394000001</v>
+        <v>-138805.56538215122</v>
       </c>
       <c r="H21" s="25">
         <f ca="1">-H41*H18</f>
-        <v>-138805.56538215122</v>
+        <v>-158438.31410178036</v>
       </c>
       <c r="I21" s="25">
         <f ca="1">-I41*I18</f>
-        <v>-158438.31410178036</v>
+        <v>-178544.13616129628</v>
       </c>
       <c r="J21" s="25">
         <f ca="1">-J41*J18</f>
-        <v>-178544.13616129628</v>
-      </c>
-      <c r="K21" s="25">
-        <f ca="1">-K41*K18</f>
         <v>-201201.38704016479</v>
       </c>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21">
         <f>(44370+11816)*-1</f>
         <v>-56186</v>
       </c>
-      <c r="E22" s="21">
+      <c r="D22" s="21">
         <f>(43907+11359)*-1</f>
         <v>-55266</v>
       </c>
-      <c r="F22" s="21">
+      <c r="E22" s="21">
         <f>(47129+11172)*-1</f>
         <v>-58301</v>
       </c>
+      <c r="F22" s="25">
+        <f ca="1">-F18*F42</f>
+        <v>-61102.077533640004</v>
+      </c>
       <c r="G22" s="25">
         <f ca="1">-G18*G42</f>
-        <v>-61102.077533640004</v>
+        <v>-66895.327316430295</v>
       </c>
       <c r="H22" s="25">
         <f ca="1">-H18*H42</f>
-        <v>-66895.327316430295</v>
+        <v>-66604.641596926769</v>
       </c>
       <c r="I22" s="25">
         <f ca="1">-I18*I42</f>
-        <v>-66604.641596926769</v>
+        <v>-75056.770615576781</v>
       </c>
       <c r="J22" s="25">
         <f ca="1">-J18*J42</f>
-        <v>-75056.770615576781</v>
-      </c>
-      <c r="K22" s="25">
-        <f ca="1">-K18*K42</f>
         <v>-84581.47480669347</v>
       </c>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>20</v>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="21">
+        <v>-767</v>
       </c>
       <c r="D23" s="21">
-        <v>-767</v>
+        <v>-763</v>
       </c>
       <c r="E23" s="21">
+        <v>-4639</v>
+      </c>
+      <c r="F23" s="25">
+        <f>$D$23</f>
         <v>-763</v>
       </c>
-      <c r="F23" s="21">
-        <v>-4639</v>
-      </c>
       <c r="G23" s="25">
-        <f>$E$23</f>
+        <f>F23</f>
         <v>-763</v>
       </c>
       <c r="H23" s="25">
@@ -2152,96 +2035,96 @@
         <f>I23</f>
         <v>-763</v>
       </c>
-      <c r="K23" s="25">
-        <f>J23</f>
-        <v>-763</v>
-      </c>
-      <c r="M23" s="27"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
-        <v>21</v>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="26">
+        <f>SUM(C20:C23)</f>
+        <v>36852</v>
       </c>
       <c r="D24" s="26">
-        <f>SUM(D20:D23)</f>
-        <v>36852</v>
+        <f t="shared" ref="D24:E24" si="1">SUM(D20:D23)</f>
+        <v>68593</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" ref="E24:F24" si="1">SUM(E20:E23)</f>
-        <v>68593</v>
-      </c>
-      <c r="F24" s="26">
         <f t="shared" si="1"/>
         <v>79975</v>
       </c>
+      <c r="F24" s="26">
+        <f ca="1">F20+F21+F22+F23</f>
+        <v>99946.748345960019</v>
+      </c>
       <c r="G24" s="26">
-        <f ca="1">G20+G21+G22+G23</f>
-        <v>99946.748345960019</v>
+        <f t="shared" ref="G24:J24" ca="1" si="2">G20+G21+G22+G23</f>
+        <v>115923.22689867292</v>
       </c>
       <c r="H24" s="26">
-        <f t="shared" ref="H24:K24" ca="1" si="2">H20+H21+H22+H23</f>
-        <v>115923.22689867292</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>147583.70173860958</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>147583.70173860958</v>
+        <v>166408.89818923915</v>
       </c>
       <c r="J24" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>166408.89818923915</v>
-      </c>
-      <c r="K24" s="26">
-        <f t="shared" ca="1" si="2"/>
         <v>187623.01206945363</v>
       </c>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2949</v>
       </c>
       <c r="D25" s="21">
-        <v>2949</v>
+        <v>4677</v>
       </c>
       <c r="E25" s="21">
-        <v>4677</v>
-      </c>
-      <c r="F25" s="21">
         <v>4381</v>
+      </c>
+      <c r="F25" s="28">
+        <f ca="1">F139</f>
+        <v>3512.9543743454306</v>
       </c>
       <c r="G25" s="28">
         <f ca="1">G139</f>
-        <v>3512.9543743454306</v>
+        <v>3409.5909032701807</v>
       </c>
       <c r="H25" s="28">
         <f ca="1">H139</f>
-        <v>3409.5909032701807</v>
+        <v>3846.124445326805</v>
       </c>
       <c r="I25" s="28">
         <f ca="1">I139</f>
-        <v>3846.124445326805</v>
+        <v>4695.1634250564766</v>
       </c>
       <c r="J25" s="28">
         <f ca="1">J139</f>
-        <v>4695.1634250564766</v>
-      </c>
-      <c r="K25" s="28">
-        <f ca="1">K139</f>
         <v>5793.1524562460845</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>23</v>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="21">
+        <v>-3182</v>
       </c>
       <c r="D26" s="21">
-        <v>-3182</v>
+        <v>-2406</v>
       </c>
       <c r="E26" s="21">
-        <v>-2406</v>
-      </c>
-      <c r="F26" s="21">
         <v>-2274</v>
+      </c>
+      <c r="F26" s="28">
+        <f>-F130</f>
+        <v>-2524.4320585773353</v>
       </c>
       <c r="G26" s="28">
         <f>-G130</f>
@@ -2259,22 +2142,22 @@
         <f>-J130</f>
         <v>-2524.4320585773353</v>
       </c>
-      <c r="K26" s="28">
-        <f>-K130</f>
-        <v>-2524.4320585773353</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>24</v>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="21">
+        <v>938</v>
       </c>
       <c r="D27" s="21">
-        <v>938</v>
+        <v>-2250</v>
       </c>
       <c r="E27" s="21">
-        <v>-2250</v>
-      </c>
-      <c r="F27" s="21">
+        <v>15229</v>
+      </c>
+      <c r="F27" s="28">
+        <f>E27</f>
         <v>15229</v>
       </c>
       <c r="G27" s="28">
@@ -2293,143 +2176,140 @@
         <f>I27</f>
         <v>15229</v>
       </c>
-      <c r="K27" s="28">
-        <f>J27</f>
-        <v>15229</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="12" t="s">
-        <v>25</v>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="26">
+        <f>SUM(C24:C27)</f>
+        <v>37557</v>
       </c>
       <c r="D28" s="26">
-        <f>SUM(D24:D27)</f>
-        <v>37557</v>
+        <f t="shared" ref="D28:E28" si="3">SUM(D24:D27)</f>
+        <v>68614</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" ref="E28:F28" si="3">SUM(E24:E27)</f>
-        <v>68614</v>
-      </c>
-      <c r="F28" s="26">
         <f t="shared" si="3"/>
         <v>97311</v>
       </c>
+      <c r="F28" s="26">
+        <f ca="1">SUM(F24:F27)</f>
+        <v>116164.27066172811</v>
+      </c>
       <c r="G28" s="26">
         <f ca="1">SUM(G24:G27)</f>
-        <v>116164.27066172811</v>
+        <v>132037.38574336574</v>
       </c>
       <c r="H28" s="26">
         <f ca="1">SUM(H24:H27)</f>
-        <v>132037.38574336574</v>
+        <v>164134.39412535905</v>
       </c>
       <c r="I28" s="26">
         <f ca="1">SUM(I24:I27)</f>
-        <v>164134.39412535905</v>
+        <v>183808.62955571827</v>
       </c>
       <c r="J28" s="26">
         <f ca="1">SUM(J24:J27)</f>
-        <v>183808.62955571827</v>
-      </c>
-      <c r="K28" s="26">
-        <f ca="1">SUM(K24:K27)</f>
         <v>206120.73246712238</v>
       </c>
+      <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>26</v>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="21">
+        <v>-7120</v>
       </c>
       <c r="D29" s="21">
-        <v>-7120</v>
+        <v>-9265</v>
       </c>
       <c r="E29" s="21">
-        <v>-9265</v>
-      </c>
-      <c r="F29" s="21">
         <v>-19087</v>
+      </c>
+      <c r="F29" s="25">
+        <f ca="1">-F43*F28</f>
+        <v>-21536.855780684393</v>
       </c>
       <c r="G29" s="25">
         <f ca="1">-G43*G28</f>
-        <v>-21536.855780684393</v>
+        <v>-24757.009826881076</v>
       </c>
       <c r="H29" s="25">
         <f ca="1">-H43*H28</f>
-        <v>-24757.009826881076</v>
+        <v>-30528.997307316782</v>
       </c>
       <c r="I29" s="25">
         <f ca="1">-I43*I28</f>
-        <v>-30528.997307316782</v>
+        <v>-34188.405097363597</v>
       </c>
       <c r="J29" s="25">
         <f ca="1">-J43*J28</f>
-        <v>-34188.405097363597</v>
-      </c>
-      <c r="K29" s="25">
-        <f ca="1">-K43*K28</f>
         <v>-38338.456238884763</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>27</v>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="21">
+        <v>-12</v>
       </c>
       <c r="D30" s="21">
-        <v>-12</v>
+        <v>-101</v>
       </c>
       <c r="E30" s="21">
-        <v>-101</v>
-      </c>
-      <c r="F30" s="21">
         <v>-554</v>
       </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="12" t="s">
-        <v>28</v>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="26">
+        <f>SUM(C28:C30)</f>
+        <v>30425</v>
       </c>
       <c r="D31" s="26">
-        <f>SUM(D28:D30)</f>
-        <v>30425</v>
+        <f t="shared" ref="D31:E31" si="4">SUM(D28:D30)</f>
+        <v>59248</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:F31" si="4">SUM(E28:E30)</f>
-        <v>59248</v>
-      </c>
-      <c r="F31" s="26">
         <f t="shared" si="4"/>
         <v>77670</v>
       </c>
+      <c r="F31" s="26">
+        <f ca="1">SUM(F28:F30)</f>
+        <v>94627.414881043718</v>
+      </c>
       <c r="G31" s="26">
-        <f ca="1">SUM(G28:G30)</f>
-        <v>94627.414881043718</v>
+        <f t="shared" ref="G31:J31" ca="1" si="5">SUM(G28:G30)</f>
+        <v>107280.37591648466</v>
       </c>
       <c r="H31" s="26">
-        <f t="shared" ref="H31:K31" ca="1" si="5">SUM(H28:H30)</f>
-        <v>107280.37591648466</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>133605.39681804227</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>133605.39681804227</v>
+        <v>149620.22445835467</v>
       </c>
       <c r="J31" s="26">
         <f t="shared" ca="1" si="5"/>
-        <v>149620.22445835467</v>
-      </c>
-      <c r="K31" s="26">
-        <f t="shared" ca="1" si="5"/>
         <v>167782.27622823761</v>
       </c>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="29"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="29"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -2437,181 +2317,184 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="30" t="s">
-        <v>29</v>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B33" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="21">
+        <v>48663</v>
       </c>
       <c r="D33" s="21">
-        <v>48663</v>
+        <v>52795</v>
       </c>
       <c r="E33" s="21">
-        <v>52795</v>
-      </c>
-      <c r="F33" s="21">
         <v>65756</v>
+      </c>
+      <c r="F33" s="28">
+        <f ca="1">F110</f>
+        <v>86989.503613026958</v>
       </c>
       <c r="G33" s="28">
         <f ca="1">G110</f>
-        <v>86989.503613026958</v>
+        <v>93649.692405740701</v>
       </c>
       <c r="H33" s="28">
         <f ca="1">H110</f>
-        <v>93649.692405740701</v>
+        <v>107410.04460278916</v>
       </c>
       <c r="I33" s="28">
         <f ca="1">I110</f>
-        <v>107410.04460278916</v>
+        <v>125444.05654488309</v>
       </c>
       <c r="J33" s="28">
         <f ca="1">J110</f>
-        <v>125444.05654488309</v>
-      </c>
-      <c r="K33" s="28">
-        <f ca="1">K110</f>
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="31" t="s">
-        <v>30</v>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B34" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" ref="C34:J34" si="6">C24+C33</f>
+        <v>85515</v>
       </c>
       <c r="D34" s="26">
-        <f t="shared" ref="D34:K34" si="6">D24+D33</f>
-        <v>85515</v>
+        <f t="shared" si="6"/>
+        <v>121388</v>
       </c>
       <c r="E34" s="26">
         <f t="shared" si="6"/>
-        <v>121388</v>
+        <v>145731</v>
       </c>
       <c r="F34" s="26">
-        <f t="shared" si="6"/>
-        <v>145731</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>186936.25195898698</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>186936.25195898698</v>
+        <v>209572.9193044136</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>209572.9193044136</v>
+        <v>254993.74634139874</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>254993.74634139874</v>
+        <v>291852.95473412226</v>
       </c>
       <c r="J34" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>291852.95473412226</v>
-      </c>
-      <c r="K34" s="26">
-        <f t="shared" ca="1" si="6"/>
         <v>333948.42331896815</v>
       </c>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="30" t="s">
-        <v>31</v>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="21">
+        <v>24023</v>
       </c>
       <c r="D35" s="21">
-        <v>24023</v>
+        <v>22011</v>
       </c>
       <c r="E35" s="21">
-        <v>22011</v>
-      </c>
-      <c r="F35" s="21">
         <v>19467</v>
+      </c>
+      <c r="F35" s="28">
+        <f ca="1">E35*(1+F39)</f>
+        <v>21859.494299999998</v>
       </c>
       <c r="G35" s="28">
         <f ca="1">F35*(1+G39)</f>
-        <v>21859.494299999998</v>
+        <v>24316.501459319999</v>
       </c>
       <c r="H35" s="28">
         <f ca="1">G35*(1+H39)</f>
-        <v>24316.501459319999</v>
+        <v>27402.265494507708</v>
       </c>
       <c r="I35" s="28">
         <f ca="1">H35*(1+I39)</f>
-        <v>27402.265494507708</v>
+        <v>30879.612985760738</v>
       </c>
       <c r="J35" s="28">
         <f ca="1">I35*(1+J39)</f>
-        <v>30879.612985760738</v>
-      </c>
-      <c r="K35" s="28">
-        <f ca="1">J35*(1+K39)</f>
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="31" t="s">
-        <v>32</v>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B36" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="26">
+        <f>SUM(C34:C35)</f>
+        <v>109538</v>
       </c>
       <c r="D36" s="26">
-        <f>SUM(D34:D35)</f>
-        <v>109538</v>
+        <f t="shared" ref="D36:J36" si="7">SUM(D34:D35)</f>
+        <v>143399</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" ref="E36:K36" si="7">SUM(E34:E35)</f>
-        <v>143399</v>
-      </c>
-      <c r="F36" s="26">
         <f t="shared" si="7"/>
         <v>165198</v>
       </c>
+      <c r="F36" s="26">
+        <f t="shared" ca="1" si="7"/>
+        <v>208795.74625898697</v>
+      </c>
       <c r="G36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>208795.74625898697</v>
+        <v>233889.42076373359</v>
       </c>
       <c r="H36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>233889.42076373359</v>
+        <v>282396.01183590642</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>282396.01183590642</v>
+        <v>322732.56771988299</v>
       </c>
       <c r="J36" s="26">
         <f t="shared" ca="1" si="7"/>
-        <v>322732.56771988299</v>
-      </c>
-      <c r="K36" s="26">
-        <f t="shared" ca="1" si="7"/>
         <v>368746.65919262194</v>
       </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="29"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="33" t="s">
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B37" s="29"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B38" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B39" s="29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34">
+        <f>D18/C18-1</f>
+        <v>0.1099089224666614</v>
+      </c>
       <c r="E39" s="34">
         <f>E18/D18-1</f>
-        <v>0.1099089224666614</v>
+        <v>0.12377754683294695</v>
       </c>
       <c r="F39" s="34">
-        <f>F18/E18-1</f>
-        <v>0.12377754683294695</v>
+        <f t="shared" ref="F39:J42" ca="1" si="8">F157</f>
+        <v>0.1229</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" ref="G39:K42" ca="1" si="8">G157</f>
-        <v>0.1229</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.1124</v>
       </c>
       <c r="H39" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1124</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" ca="1" si="8"/>
@@ -2621,40 +2504,40 @@
         <f t="shared" ca="1" si="8"/>
         <v>0.12690000000000001</v>
       </c>
-      <c r="K39" s="34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.12690000000000001</v>
-      </c>
+      <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="29" t="s">
-        <v>35</v>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B40" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="34">
+        <f>C20/C18</f>
+        <v>0.31216367859286515</v>
       </c>
       <c r="D40" s="34">
         <f>D20/D18</f>
-        <v>0.31216367859286515</v>
+        <v>0.33413746024431035</v>
       </c>
       <c r="E40" s="34">
         <f>E20/E18</f>
-        <v>0.33413746024431035</v>
+        <v>0.35071499907940035</v>
       </c>
       <c r="F40" s="34">
-        <f>F20/F18</f>
-        <v>0.35071499907940035</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35099999999999998</v>
       </c>
       <c r="G40" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35099999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="H40" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I40" s="34">
         <f t="shared" ca="1" si="8"/>
@@ -2664,40 +2547,40 @@
         <f t="shared" ca="1" si="8"/>
         <v>0.37</v>
       </c>
-      <c r="K40" s="34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.37</v>
-      </c>
+      <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
-        <v>36</v>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="34">
+        <f>-C21/C18</f>
+        <v>0.14896352549214054</v>
       </c>
       <c r="D41" s="34">
         <f>-D21/D18</f>
-        <v>0.14896352549214054</v>
+        <v>0.13879261833440706</v>
       </c>
       <c r="E41" s="34">
         <f>-E21/E18</f>
-        <v>0.13879261833440706</v>
+        <v>0.15137029866485149</v>
       </c>
       <c r="F41" s="34">
-        <f>-F21/F18</f>
-        <v>0.15137029866485149</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.15</v>
       </c>
       <c r="G41" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H41" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="I41" s="34">
         <f t="shared" ca="1" si="8"/>
@@ -2707,40 +2590,40 @@
         <f t="shared" ca="1" si="8"/>
         <v>0.157</v>
       </c>
-      <c r="K41" s="34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.157</v>
-      </c>
+      <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="29" t="s">
-        <v>37</v>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B42" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="34">
+        <f>-C22/C18</f>
+        <v>9.7751333107161803E-2</v>
       </c>
       <c r="D42" s="34">
         <f>-D22/D18</f>
-        <v>9.7751333107161803E-2</v>
+        <v>8.6629391543970688E-2</v>
       </c>
       <c r="E42" s="34">
         <f>-E22/E18</f>
-        <v>8.6629391543970688E-2</v>
+        <v>8.132103263386356E-2</v>
       </c>
       <c r="F42" s="34">
-        <f>-F22/F18</f>
-        <v>8.132103263386356E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="G42" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5899999999999995E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="H42" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4700000000000003E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I42" s="34">
         <f t="shared" ca="1" si="8"/>
@@ -2750,344 +2633,341 @@
         <f t="shared" ca="1" si="8"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K42" s="34">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
+      <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="29" t="s">
-        <v>38</v>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B43" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="34">
+        <f>-(C29/C28)</f>
+        <v>0.18957850733551668</v>
       </c>
       <c r="D43" s="34">
         <f>-(D29/D28)</f>
-        <v>0.18957850733551668</v>
+        <v>0.13503075174162707</v>
       </c>
       <c r="E43" s="34">
         <f>-(E29/E28)</f>
-        <v>0.13503075174162707</v>
-      </c>
-      <c r="F43" s="34">
-        <f>-(F29/F28)</f>
         <v>0.19614432078593375</v>
       </c>
+      <c r="F43" s="35">
+        <v>0.18540000000000001</v>
+      </c>
       <c r="G43" s="35">
-        <v>0.18540000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="H43" s="35">
-        <v>0.1875</v>
-      </c>
-      <c r="I43" s="35">
+        <v>0.186</v>
+      </c>
+      <c r="I43" s="34">
+        <f>H43</f>
         <v>0.186</v>
       </c>
       <c r="J43" s="34">
         <f>I43</f>
         <v>0.186</v>
       </c>
-      <c r="K43" s="34">
-        <f>J43</f>
-        <v>0.186</v>
-      </c>
+      <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="29"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B44" s="29"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="37" t="str">
-        <f>C15</f>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B46" s="37" t="str">
+        <f>B15</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38">
+        <f t="shared" ref="D46:J47" si="9">D15</f>
+        <v>2024</v>
+      </c>
       <c r="E46" s="38">
-        <f>E15</f>
-        <v>2024</v>
-      </c>
-      <c r="F46" s="38">
-        <f>F15</f>
+        <f t="shared" si="9"/>
         <v>2025</v>
       </c>
+      <c r="F46" s="39">
+        <f t="shared" si="9"/>
+        <v>2026</v>
+      </c>
       <c r="G46" s="39">
-        <f>G15</f>
-        <v>2026</v>
+        <f t="shared" si="9"/>
+        <v>2027</v>
       </c>
       <c r="H46" s="39">
-        <f>H15</f>
-        <v>2027</v>
+        <f t="shared" si="9"/>
+        <v>2028</v>
       </c>
       <c r="I46" s="39">
-        <f>I15</f>
-        <v>2028</v>
+        <f t="shared" si="9"/>
+        <v>2029</v>
       </c>
       <c r="J46" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K46" s="39">
-        <f>K15</f>
+        <f t="shared" si="9"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="14" t="str">
-        <f>C16</f>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B47" s="14" t="str">
+        <f>B16</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40">
+        <f t="shared" si="9"/>
+        <v>45657</v>
+      </c>
       <c r="E47" s="40">
-        <f>E16</f>
-        <v>45657</v>
+        <f t="shared" si="9"/>
+        <v>46022</v>
       </c>
       <c r="F47" s="40">
-        <f>F16</f>
-        <v>46022</v>
+        <f t="shared" si="9"/>
+        <v>46387</v>
       </c>
       <c r="G47" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="9"/>
+        <v>46752</v>
       </c>
       <c r="H47" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="9"/>
+        <v>47118</v>
       </c>
       <c r="I47" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="9"/>
+        <v>47483</v>
       </c>
       <c r="J47" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K47" s="40">
-        <f>K16</f>
+        <f t="shared" si="9"/>
         <v>47848</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21">
         <f>78779+22423</f>
         <v>101202</v>
       </c>
-      <c r="F48" s="21">
+      <c r="E48" s="21">
         <f>86810+36219</f>
         <v>123029</v>
       </c>
+      <c r="F48" s="28">
+        <f ca="1">F94+E48</f>
+        <v>111167.95828969538</v>
+      </c>
       <c r="G48" s="28">
         <f ca="1">G94+F48</f>
-        <v>111167.95828969538</v>
+        <v>116138.10192831667</v>
       </c>
       <c r="H48" s="28">
         <f ca="1">H94+G48</f>
-        <v>116138.10192831667</v>
+        <v>140270.19442680368</v>
       </c>
       <c r="I48" s="28">
         <f ca="1">I94+H48</f>
-        <v>140270.19442680368</v>
+        <v>172740.70057696142</v>
       </c>
       <c r="J48" s="28">
         <f ca="1">J94+I48</f>
-        <v>172740.70057696142</v>
-      </c>
-      <c r="K48" s="28">
-        <f ca="1">K94+J48</f>
         <v>213469.46317277758</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="21"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21">
+        <v>55451</v>
+      </c>
       <c r="E49" s="21">
-        <v>55451</v>
-      </c>
-      <c r="F49" s="21">
         <v>67729</v>
+      </c>
+      <c r="F49" s="28">
+        <f ca="1">E49*(1+F39)</f>
+        <v>76052.894100000005</v>
       </c>
       <c r="G49" s="28">
         <f ca="1">F49*(1+G39)</f>
-        <v>76052.894100000005</v>
+        <v>84601.239396840014</v>
       </c>
       <c r="H49" s="28">
         <f ca="1">G49*(1+H39)</f>
-        <v>84601.239396840014</v>
+        <v>95337.136676299007</v>
       </c>
       <c r="I49" s="28">
         <f ca="1">H49*(1+I39)</f>
-        <v>95337.136676299007</v>
+        <v>107435.41932052135</v>
       </c>
       <c r="J49" s="28">
         <f ca="1">I49*(1+J39)</f>
-        <v>107435.41932052135</v>
-      </c>
-      <c r="K49" s="28">
-        <f ca="1">J49*(1+K39)</f>
         <v>121068.97403229552</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="21"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21">
+        <v>34214</v>
+      </c>
       <c r="E50" s="21">
-        <v>34214</v>
-      </c>
-      <c r="F50" s="21">
         <v>38325</v>
+      </c>
+      <c r="F50" s="28">
+        <f ca="1">E50*F19/E19</f>
+        <v>43016.252405183019</v>
       </c>
       <c r="G50" s="28">
         <f ca="1">F50*G19/F19</f>
-        <v>43016.252405183019</v>
+        <v>47187.702114539876</v>
       </c>
       <c r="H50" s="28">
         <f ca="1">G50*H19/G19</f>
-        <v>47187.702114539876</v>
+        <v>52344.949301736313</v>
       </c>
       <c r="I50" s="28">
         <f ca="1">H50*I19/H19</f>
-        <v>52344.949301736313</v>
+        <v>58987.523368126647</v>
       </c>
       <c r="J50" s="28">
         <f ca="1">I50*J19/I19</f>
-        <v>58987.523368126647</v>
-      </c>
-      <c r="K50" s="28">
-        <f ca="1">J50*K19/J19</f>
         <v>66473.040083541913</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="21"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21">
+        <v>252665</v>
+      </c>
       <c r="E51" s="21">
-        <v>252665</v>
-      </c>
-      <c r="F51" s="21">
         <v>357025</v>
+      </c>
+      <c r="F51" s="28">
+        <f>F103</f>
+        <v>475008.39878697303</v>
       </c>
       <c r="G51" s="28">
         <f>G103</f>
-        <v>475008.39878697303</v>
+        <v>589581.5690109923</v>
       </c>
       <c r="H51" s="28">
         <f>H103</f>
-        <v>589581.5690109923</v>
+        <v>711140.86270567973</v>
       </c>
       <c r="I51" s="28">
-        <f>I103</f>
-        <v>711140.86270567973</v>
+        <f ca="1">I103</f>
+        <v>843722.35348822293</v>
       </c>
       <c r="J51" s="28">
         <f ca="1">J103</f>
-        <v>843722.35348822293</v>
-      </c>
-      <c r="K51" s="28">
-        <f ca="1">K103</f>
         <v>988165.93152198521</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21">
         <f>82147+76141+23074</f>
         <v>181362</v>
       </c>
-      <c r="F52" s="21">
+      <c r="E52" s="21">
         <f>122607+86054+23273</f>
         <v>231934</v>
       </c>
+      <c r="F52" s="28">
+        <f ca="1">E52*(1+F39)</f>
+        <v>260438.68859999999</v>
+      </c>
       <c r="G52" s="28">
         <f ca="1">F52*(1+G39)</f>
-        <v>260438.68859999999</v>
+        <v>289711.99719864002</v>
       </c>
       <c r="H52" s="28">
         <f ca="1">G52*(1+H39)</f>
-        <v>289711.99719864002</v>
+        <v>326476.44964314747</v>
       </c>
       <c r="I52" s="28">
         <f ca="1">H52*(1+I39)</f>
-        <v>326476.44964314747</v>
+        <v>367906.31110286288</v>
       </c>
       <c r="J52" s="28">
         <f ca="1">I52*(1+J39)</f>
-        <v>367906.31110286288</v>
-      </c>
-      <c r="K52" s="28">
-        <f ca="1">J52*(1+K39)</f>
         <v>414593.62198181619</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="26"/>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B53" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26">
+        <f t="shared" ref="D53:J53" si="10">SUM(D48:D52)</f>
+        <v>624894</v>
+      </c>
       <c r="E53" s="26">
-        <f>SUM(E48:E52)</f>
-        <v>624894</v>
-      </c>
-      <c r="F53" s="26">
-        <f>SUM(F48:F52)</f>
+        <f t="shared" si="10"/>
         <v>818042</v>
       </c>
+      <c r="F53" s="41">
+        <f t="shared" ca="1" si="10"/>
+        <v>965684.19218185148</v>
+      </c>
       <c r="G53" s="41">
-        <f ca="1">SUM(G48:G52)</f>
-        <v>965684.19218185148</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1127220.609649329</v>
       </c>
       <c r="H53" s="41">
-        <f ca="1">SUM(H48:H52)</f>
-        <v>1127220.609649329</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1325569.5927536662</v>
       </c>
       <c r="I53" s="41">
-        <f ca="1">SUM(I48:I52)</f>
-        <v>1325569.5927536662</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1550792.3078566953</v>
       </c>
       <c r="J53" s="41">
-        <f ca="1">SUM(J48:J52)</f>
-        <v>1550792.3078566953</v>
-      </c>
-      <c r="K53" s="41">
-        <f ca="1">SUM(K48:K52)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1803771.0307924163</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="30"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B54" s="30"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -3095,113 +2975,116 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B55" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21">
+        <v>94363</v>
+      </c>
       <c r="E55" s="21">
-        <v>94363</v>
-      </c>
-      <c r="F55" s="21">
         <v>121909</v>
+      </c>
+      <c r="F55" s="28">
+        <f ca="1">E55*F19/E19</f>
+        <v>136831.52810080774</v>
       </c>
       <c r="G55" s="28">
         <f ca="1">F55*G19/F19</f>
-        <v>136831.52810080774</v>
+        <v>150100.60214172059</v>
       </c>
       <c r="H55" s="28">
         <f ca="1">G55*H19/G19</f>
-        <v>150100.60214172059</v>
+        <v>166505.42529485642</v>
       </c>
       <c r="I55" s="28">
         <f ca="1">H55*I19/H19</f>
-        <v>166505.42529485642</v>
+        <v>187634.96376477371</v>
       </c>
       <c r="J55" s="28">
         <f ca="1">I55*J19/I19</f>
-        <v>187634.96376477371</v>
-      </c>
-      <c r="K55" s="28">
-        <f ca="1">J55*K19/J19</f>
         <v>211445.84066652349</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="21"/>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B56" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21">
+        <v>66965</v>
+      </c>
       <c r="E56" s="21">
-        <v>66965</v>
-      </c>
-      <c r="F56" s="21">
         <v>75520</v>
+      </c>
+      <c r="F56" s="28">
+        <f ca="1">E56*(1+F39)</f>
+        <v>84801.407999999996</v>
       </c>
       <c r="G56" s="28">
         <f ca="1">F56*(1+G39)</f>
-        <v>84801.407999999996</v>
+        <v>94333.086259200005</v>
       </c>
       <c r="H56" s="28">
         <f ca="1">G56*(1+H39)</f>
-        <v>94333.086259200005</v>
+        <v>106303.95490549249</v>
       </c>
       <c r="I56" s="28">
         <f ca="1">H56*(1+I39)</f>
-        <v>106303.95490549249</v>
+        <v>119793.92678299948</v>
       </c>
       <c r="J56" s="28">
         <f ca="1">I56*(1+J39)</f>
-        <v>119793.92678299948</v>
-      </c>
-      <c r="K56" s="28">
-        <f ca="1">J56*(1+K39)</f>
         <v>134995.77609176212</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="21"/>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B57" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21">
+        <v>18103</v>
+      </c>
       <c r="E57" s="21">
-        <v>18103</v>
-      </c>
-      <c r="F57" s="21">
         <v>20576</v>
+      </c>
+      <c r="F57" s="28">
+        <f ca="1">E57*(1+F39)</f>
+        <v>23104.790400000002</v>
       </c>
       <c r="G57" s="28">
         <f ca="1">F57*(1+G39)</f>
-        <v>23104.790400000002</v>
+        <v>25701.768840960001</v>
       </c>
       <c r="H57" s="28">
         <f ca="1">G57*(1+H39)</f>
-        <v>25701.768840960001</v>
+        <v>28963.323306877825</v>
       </c>
       <c r="I57" s="28">
         <f ca="1">H57*(1+I39)</f>
-        <v>28963.323306877825</v>
+        <v>32638.769034520621</v>
       </c>
       <c r="J57" s="28">
         <f ca="1">I57*(1+J39)</f>
-        <v>32638.769034520621</v>
-      </c>
-      <c r="K57" s="28">
-        <f ca="1">J57*(1+K39)</f>
         <v>36780.628825001288</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="21"/>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B58" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21">
+        <v>78277</v>
+      </c>
       <c r="E58" s="21">
-        <v>78277</v>
-      </c>
-      <c r="F58" s="21">
+        <v>87339</v>
+      </c>
+      <c r="F58" s="28">
+        <f>E58</f>
         <v>87339</v>
       </c>
       <c r="G58" s="28">
@@ -3220,257 +3103,257 @@
         <f>I58</f>
         <v>87339</v>
       </c>
-      <c r="K58" s="28">
-        <f>J58</f>
-        <v>87339</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B59" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21">
+        <v>52623</v>
+      </c>
+      <c r="E59" s="21">
+        <v>65648</v>
+      </c>
+      <c r="F59" s="28">
+        <f>E59</f>
+        <v>65648</v>
+      </c>
+      <c r="G59" s="28">
+        <f t="shared" ref="G59:J59" si="11">F59</f>
+        <v>65648</v>
+      </c>
+      <c r="H59" s="28">
+        <f t="shared" si="11"/>
+        <v>65648</v>
+      </c>
+      <c r="I59" s="28">
+        <f t="shared" si="11"/>
+        <v>65648</v>
+      </c>
+      <c r="J59" s="28">
+        <f t="shared" si="11"/>
+        <v>65648</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B60" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21">
-        <v>52623</v>
-      </c>
-      <c r="F59" s="21">
-        <v>65648</v>
-      </c>
-      <c r="G59" s="28">
-        <f>F59</f>
-        <v>65648</v>
-      </c>
-      <c r="H59" s="28">
-        <f t="shared" ref="H59:K59" si="9">G59</f>
-        <v>65648</v>
-      </c>
-      <c r="I59" s="28">
-        <f t="shared" si="9"/>
-        <v>65648</v>
-      </c>
-      <c r="J59" s="28">
-        <f t="shared" si="9"/>
-        <v>65648</v>
-      </c>
-      <c r="K59" s="28">
-        <f t="shared" si="9"/>
-        <v>65648</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21">
+        <v>28593</v>
+      </c>
       <c r="E60" s="21">
-        <v>28593</v>
-      </c>
-      <c r="F60" s="21">
         <v>35985</v>
+      </c>
+      <c r="F60" s="28">
+        <f ca="1">E60*(1+F39)</f>
+        <v>40407.556499999999</v>
       </c>
       <c r="G60" s="28">
         <f ca="1">F60*(1+G39)</f>
-        <v>40407.556499999999</v>
+        <v>44949.365850599999</v>
       </c>
       <c r="H60" s="28">
         <f ca="1">G60*(1+H39)</f>
-        <v>44949.365850599999</v>
+        <v>50653.440377041137</v>
       </c>
       <c r="I60" s="28">
         <f ca="1">H60*(1+I39)</f>
-        <v>50653.440377041137</v>
+        <v>57081.361960887662</v>
       </c>
       <c r="J60" s="28">
         <f ca="1">I60*(1+J39)</f>
-        <v>57081.361960887662</v>
-      </c>
-      <c r="K60" s="28">
-        <f ca="1">J60*(1+K39)</f>
         <v>64324.986793724303</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="26"/>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26">
+        <f t="shared" ref="D61:J61" si="12">SUM(D55:D60)</f>
+        <v>338924</v>
+      </c>
       <c r="E61" s="26">
-        <f>SUM(E55:E60)</f>
-        <v>338924</v>
-      </c>
-      <c r="F61" s="26">
-        <f>SUM(F55:F60)</f>
+        <f t="shared" si="12"/>
         <v>406977</v>
       </c>
+      <c r="F61" s="41">
+        <f t="shared" ca="1" si="12"/>
+        <v>438132.28300080774</v>
+      </c>
       <c r="G61" s="41">
-        <f ca="1">SUM(G55:G60)</f>
-        <v>438132.28300080774</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>468071.8230924806</v>
       </c>
       <c r="H61" s="41">
-        <f ca="1">SUM(H55:H60)</f>
-        <v>468071.8230924806</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>505413.14388426783</v>
       </c>
       <c r="I61" s="41">
-        <f ca="1">SUM(I55:I60)</f>
-        <v>505413.14388426783</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>550136.0215431815</v>
       </c>
       <c r="J61" s="41">
-        <f ca="1">SUM(J55:J60)</f>
-        <v>550136.0215431815</v>
-      </c>
-      <c r="K61" s="41">
-        <f ca="1">SUM(K55:K60)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>600534.23237701133</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="31"/>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B62" s="31"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B63" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21">
+        <v>111</v>
+      </c>
       <c r="E63" s="21">
-        <v>111</v>
-      </c>
-      <c r="F63" s="21">
         <v>112</v>
+      </c>
+      <c r="F63" s="28">
+        <f ca="1">E63+F35</f>
+        <v>21971.494299999998</v>
       </c>
       <c r="G63" s="28">
         <f ca="1">F63+G35</f>
-        <v>21971.494299999998</v>
+        <v>46287.995759319994</v>
       </c>
       <c r="H63" s="28">
         <f ca="1">G63+H35</f>
-        <v>46287.995759319994</v>
+        <v>73690.261253827703</v>
       </c>
       <c r="I63" s="28">
         <f ca="1">H63+I35</f>
-        <v>73690.261253827703</v>
+        <v>104569.87423958845</v>
       </c>
       <c r="J63" s="28">
         <f ca="1">I63+J35</f>
-        <v>104569.87423958845</v>
-      </c>
-      <c r="K63" s="28">
-        <f ca="1">J63+K35</f>
         <v>139368.11011324223</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="21"/>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B64" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21">
+        <v>-7837</v>
+      </c>
       <c r="E64" s="21">
         <v>-7837</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="28">
+        <f t="shared" ref="F64:J65" si="13">E64</f>
         <v>-7837</v>
       </c>
       <c r="G64" s="28">
-        <f>F64</f>
+        <f t="shared" si="13"/>
         <v>-7837</v>
       </c>
       <c r="H64" s="28">
-        <f>G64</f>
+        <f t="shared" si="13"/>
         <v>-7837</v>
       </c>
       <c r="I64" s="28">
-        <f>H64</f>
+        <f t="shared" si="13"/>
         <v>-7837</v>
       </c>
       <c r="J64" s="28">
-        <f>I64</f>
+        <f t="shared" si="13"/>
         <v>-7837</v>
       </c>
-      <c r="K64" s="28">
-        <f>J64</f>
-        <v>-7837</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21">
+        <v>120864</v>
+      </c>
+      <c r="E65" s="21">
+        <v>140024</v>
+      </c>
+      <c r="F65" s="28">
+        <f t="shared" si="13"/>
+        <v>140024</v>
+      </c>
+      <c r="G65" s="28">
+        <f t="shared" si="13"/>
+        <v>140024</v>
+      </c>
+      <c r="H65" s="28">
+        <f t="shared" si="13"/>
+        <v>140024</v>
+      </c>
+      <c r="I65" s="28">
+        <f t="shared" si="13"/>
+        <v>140024</v>
+      </c>
+      <c r="J65" s="28">
+        <f t="shared" si="13"/>
+        <v>140024</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B66" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21">
-        <v>120864</v>
-      </c>
-      <c r="F65" s="21">
-        <v>140024</v>
-      </c>
-      <c r="G65" s="28">
-        <f>F65</f>
-        <v>140024</v>
-      </c>
-      <c r="H65" s="28">
-        <f>G65</f>
-        <v>140024</v>
-      </c>
-      <c r="I65" s="28">
-        <f>H65</f>
-        <v>140024</v>
-      </c>
-      <c r="J65" s="28">
-        <f>I65</f>
-        <v>140024</v>
-      </c>
-      <c r="K65" s="28">
-        <f>J65</f>
-        <v>140024</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="21">
+        <v>172866</v>
+      </c>
       <c r="E66" s="21">
-        <v>172866</v>
-      </c>
-      <c r="F66" s="21">
         <v>250536</v>
+      </c>
+      <c r="F66" s="28">
+        <f ca="1">F123</f>
+        <v>345163.41488104372</v>
       </c>
       <c r="G66" s="28">
         <f ca="1">G123</f>
-        <v>345163.41488104372</v>
+        <v>452443.79079752835</v>
       </c>
       <c r="H66" s="28">
         <f ca="1">H123</f>
-        <v>452443.79079752835</v>
+        <v>586049.18761557061</v>
       </c>
       <c r="I66" s="28">
         <f ca="1">I123</f>
-        <v>586049.18761557061</v>
+        <v>735669.41207392525</v>
       </c>
       <c r="J66" s="28">
         <f ca="1">J123</f>
-        <v>735669.41207392525</v>
-      </c>
-      <c r="K66" s="28">
-        <f ca="1">K123</f>
         <v>903451.6883021628</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="21"/>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B67" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21">
+        <v>-34</v>
+      </c>
       <c r="E67" s="21">
-        <v>-34</v>
-      </c>
-      <c r="F67" s="21">
+        <v>28230</v>
+      </c>
+      <c r="F67" s="28">
+        <f>E67</f>
         <v>28230</v>
       </c>
       <c r="G67" s="28">
@@ -3489,96 +3372,93 @@
         <f>I67</f>
         <v>28230</v>
       </c>
-      <c r="K67" s="28">
-        <f>J67</f>
-        <v>28230</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="41"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41">
+        <f t="shared" ref="D68:J68" si="14">SUM(D63:D67)</f>
+        <v>285970</v>
+      </c>
       <c r="E68" s="41">
-        <f t="shared" ref="E68:K68" si="10">SUM(E63:E67)</f>
-        <v>285970</v>
+        <f t="shared" si="14"/>
+        <v>411065</v>
       </c>
       <c r="F68" s="41">
-        <f t="shared" si="10"/>
-        <v>411065</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>527551.90918104374</v>
       </c>
       <c r="G68" s="41">
-        <f t="shared" ca="1" si="10"/>
-        <v>527551.90918104374</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>659148.78655684832</v>
       </c>
       <c r="H68" s="41">
-        <f t="shared" ca="1" si="10"/>
-        <v>659148.78655684832</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>820156.44886939833</v>
       </c>
       <c r="I68" s="41">
-        <f t="shared" ca="1" si="10"/>
-        <v>820156.44886939833</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1000656.2863135138</v>
       </c>
       <c r="J68" s="41">
-        <f t="shared" ca="1" si="10"/>
-        <v>1000656.2863135138</v>
-      </c>
-      <c r="K68" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1203236.798415405</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="42"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B70" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42">
+        <f t="shared" ref="D70:J70" si="15">ROUND(D53-D61-D68,3)</f>
+        <v>0</v>
+      </c>
       <c r="E70" s="42">
-        <f>ROUND(E53-E61-E68,3)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F70" s="42">
-        <f>ROUND(F53-F61-F68,3)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="G70" s="42">
-        <f ca="1">ROUND(G53-G61-G68,3)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="H70" s="42">
-        <f ca="1">ROUND(H53-H61-H68,3)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="I70" s="42">
-        <f ca="1">ROUND(I53-I61-I68,3)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J70" s="42">
-        <f ca="1">ROUND(J53-J61-J68,3)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="K70" s="42">
-        <f ca="1">ROUND(K53-K61-K68,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D71" s="28"/>
       <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="13" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B72" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="36"/>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -3586,375 +3466,378 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="37" t="str">
-        <f>C15</f>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B73" s="37" t="str">
+        <f>B15</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
+      <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
+      <c r="F73" s="39">
+        <f t="shared" ref="F73:J74" si="16">F15</f>
+        <v>2026</v>
+      </c>
       <c r="G73" s="39">
-        <f>G15</f>
-        <v>2026</v>
+        <f t="shared" si="16"/>
+        <v>2027</v>
       </c>
       <c r="H73" s="39">
-        <f>H15</f>
-        <v>2027</v>
+        <f t="shared" si="16"/>
+        <v>2028</v>
       </c>
       <c r="I73" s="39">
-        <f>I15</f>
-        <v>2028</v>
+        <f t="shared" si="16"/>
+        <v>2029</v>
       </c>
       <c r="J73" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K73" s="39">
-        <f>K15</f>
+        <f t="shared" si="16"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="14" t="str">
-        <f>C16</f>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B74" s="14" t="str">
+        <f>B16</f>
         <v>Fiscal year end date</v>
       </c>
+      <c r="C74" s="40"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="F74" s="40">
+        <f t="shared" si="16"/>
+        <v>46387</v>
+      </c>
       <c r="G74" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="16"/>
+        <v>46752</v>
       </c>
       <c r="H74" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="16"/>
+        <v>47118</v>
       </c>
       <c r="I74" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="16"/>
+        <v>47483</v>
       </c>
       <c r="J74" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K74" s="40">
-        <f>K16</f>
+        <f t="shared" si="16"/>
         <v>47848</v>
       </c>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>28</v>
-      </c>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="43"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
+      <c r="F76" s="28">
+        <f ca="1">F31</f>
+        <v>94627.414881043718</v>
+      </c>
       <c r="G76" s="28">
         <f ca="1">G31</f>
-        <v>94627.414881043718</v>
+        <v>107280.37591648466</v>
       </c>
       <c r="H76" s="28">
         <f ca="1">H31</f>
-        <v>107280.37591648466</v>
+        <v>133605.39681804227</v>
       </c>
       <c r="I76" s="28">
         <f ca="1">I31</f>
-        <v>133605.39681804227</v>
+        <v>149620.22445835467</v>
       </c>
       <c r="J76" s="28">
         <f ca="1">J31</f>
-        <v>149620.22445835467</v>
-      </c>
-      <c r="K76" s="28">
-        <f ca="1">K31</f>
         <v>167782.27622823761</v>
       </c>
-      <c r="M76" s="12"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>61</v>
-      </c>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="43"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="F77" s="28">
+        <f ca="1">F33</f>
+        <v>86989.503613026958</v>
+      </c>
       <c r="G77" s="28">
         <f ca="1">G33</f>
-        <v>86989.503613026958</v>
+        <v>93649.692405740701</v>
       </c>
       <c r="H77" s="28">
         <f ca="1">H33</f>
-        <v>93649.692405740701</v>
+        <v>107410.04460278916</v>
       </c>
       <c r="I77" s="28">
         <f ca="1">I33</f>
-        <v>107410.04460278916</v>
+        <v>125444.05654488309</v>
       </c>
       <c r="J77" s="28">
         <f ca="1">J33</f>
-        <v>125444.05654488309</v>
-      </c>
-      <c r="K77" s="28">
-        <f ca="1">K33</f>
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="43"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
+      <c r="F78" s="28">
+        <f ca="1">F35</f>
+        <v>21859.494299999998</v>
+      </c>
       <c r="G78" s="28">
         <f ca="1">G35</f>
-        <v>21859.494299999998</v>
+        <v>24316.501459319999</v>
       </c>
       <c r="H78" s="28">
         <f ca="1">H35</f>
-        <v>24316.501459319999</v>
+        <v>27402.265494507708</v>
       </c>
       <c r="I78" s="28">
         <f ca="1">I35</f>
-        <v>27402.265494507708</v>
+        <v>30879.612985760738</v>
       </c>
       <c r="J78" s="28">
         <f ca="1">J35</f>
-        <v>30879.612985760738</v>
-      </c>
-      <c r="K78" s="28">
-        <f ca="1">K35</f>
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>62</v>
-      </c>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="F79" s="28">
+        <f ca="1">-1*(SUM(F49:F50)-SUM(E49:E50))</f>
+        <v>-13015.146505183016</v>
+      </c>
       <c r="G79" s="28">
         <f ca="1">-1*(SUM(G49:G50)-SUM(F49:F50))</f>
-        <v>-13015.146505183016</v>
+        <v>-12719.795006196888</v>
       </c>
       <c r="H79" s="28">
         <f ca="1">-1*(SUM(H49:H50)-SUM(G49:G50))</f>
-        <v>-12719.795006196888</v>
+        <v>-15893.144466655416</v>
       </c>
       <c r="I79" s="28">
         <f ca="1">-1*(SUM(I49:I50)-SUM(H49:H50))</f>
-        <v>-15893.144466655416</v>
+        <v>-18740.856710612687</v>
       </c>
       <c r="J79" s="28">
         <f ca="1">-1*(SUM(J49:J50)-SUM(I49:I50))</f>
-        <v>-18740.856710612687</v>
-      </c>
-      <c r="K79" s="28">
-        <f ca="1">-1*(SUM(K49:K50)-SUM(J49:J50))</f>
         <v>-21119.071427189425</v>
       </c>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>63</v>
-      </c>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="F80" s="28">
+        <f ca="1">SUM(F55:F57)-SUM(E55:E57)</f>
+        <v>26732.726500807737</v>
+      </c>
       <c r="G80" s="28">
         <f ca="1">SUM(G55:G57)-SUM(F55:F57)</f>
-        <v>26732.726500807737</v>
+        <v>25397.730741072854</v>
       </c>
       <c r="H80" s="28">
         <f ca="1">SUM(H55:H57)-SUM(G55:G57)</f>
-        <v>25397.730741072854</v>
+        <v>31637.246265346126</v>
       </c>
       <c r="I80" s="28">
         <f ca="1">SUM(I55:I57)-SUM(H55:H57)</f>
-        <v>31637.246265346126</v>
+        <v>38294.956075067108</v>
       </c>
       <c r="J80" s="28">
         <f ca="1">SUM(J55:J57)-SUM(I55:I57)</f>
-        <v>38294.956075067108</v>
-      </c>
-      <c r="K80" s="28">
-        <f ca="1">SUM(K55:K57)-SUM(J55:J57)</f>
         <v>43154.586000993091</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>44</v>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="28">
+        <f ca="1">-F115</f>
+        <v>-55292.591000000015</v>
       </c>
       <c r="G81" s="28">
         <f ca="1">-G115</f>
-        <v>-55292.591000000015</v>
+        <v>-59072.171228400024</v>
       </c>
       <c r="H81" s="28">
         <f ca="1">-H115</f>
-        <v>-59072.171228400024</v>
+        <v>-70344.790741983976</v>
       </c>
       <c r="I81" s="28">
         <f ca="1">-I115</f>
-        <v>-70344.790741983976</v>
+        <v>-79271.544687141723</v>
       </c>
       <c r="J81" s="28">
         <f ca="1">-J115</f>
-        <v>-79271.544687141723</v>
-      </c>
-      <c r="K81" s="28">
-        <f ca="1">-K115</f>
         <v>-89331.103707940027</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>51</v>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="28">
+        <f ca="1">F60-E60</f>
+        <v>4422.5564999999988</v>
       </c>
       <c r="G82" s="28">
         <f ca="1">G60-F60</f>
-        <v>4422.5564999999988</v>
+        <v>4541.8093506000005</v>
       </c>
       <c r="H82" s="28">
         <f ca="1">H60-G60</f>
-        <v>4541.8093506000005</v>
+        <v>5704.074526441138</v>
       </c>
       <c r="I82" s="28">
         <f ca="1">I60-H60</f>
-        <v>5704.074526441138</v>
+        <v>6427.9215838465243</v>
       </c>
       <c r="J82" s="28">
         <f ca="1">J60-I60</f>
-        <v>6427.9215838465243</v>
-      </c>
-      <c r="K82" s="28">
-        <f ca="1">K60-J60</f>
         <v>7243.6248328366419</v>
       </c>
-      <c r="M82" s="12"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C83" s="12" t="s">
-        <v>64</v>
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="41">
+        <f ca="1">SUM(F76:F82)</f>
+        <v>166323.95828969538</v>
       </c>
       <c r="G83" s="41">
         <f ca="1">SUM(G76:G82)</f>
-        <v>166323.95828969538</v>
+        <v>183394.14363862129</v>
       </c>
       <c r="H83" s="41">
         <f ca="1">SUM(H76:H82)</f>
-        <v>183394.14363862129</v>
+        <v>219521.09249848701</v>
       </c>
       <c r="I83" s="41">
         <f ca="1">SUM(I76:I82)</f>
-        <v>219521.09249848701</v>
+        <v>252654.37025015775</v>
       </c>
       <c r="J83" s="41">
         <f ca="1">SUM(J76:J82)</f>
-        <v>252654.37025015775</v>
-      </c>
-      <c r="K83" s="41">
-        <f ca="1">SUM(K76:K82)</f>
         <v>288853.95905010618</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F84" s="28"/>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>65</v>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="28">
+        <f>-F101</f>
+        <v>-178185</v>
       </c>
       <c r="G85" s="28">
         <f>-G101</f>
-        <v>-178185</v>
+        <v>-178424</v>
       </c>
       <c r="H85" s="28">
         <f>-H101</f>
-        <v>-178424</v>
+        <v>-195389</v>
       </c>
       <c r="I85" s="28">
-        <f>-I101</f>
-        <v>-195389</v>
+        <f ca="1">-I101</f>
+        <v>-220183.86410000001</v>
       </c>
       <c r="J85" s="28">
         <f ca="1">-J101</f>
-        <v>-220183.86410000001</v>
-      </c>
-      <c r="K85" s="28">
-        <f ca="1">-K101</f>
         <v>-248125.19645429001</v>
       </c>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C86" s="12" t="s">
-        <v>66</v>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B86" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="41">
+        <f>IFERROR(F85,"NA")</f>
+        <v>-178185</v>
       </c>
       <c r="G86" s="41">
         <f>IFERROR(G85,"NA")</f>
-        <v>-178185</v>
+        <v>-178424</v>
       </c>
       <c r="H86" s="41">
         <f>IFERROR(H85,"NA")</f>
-        <v>-178424</v>
+        <v>-195389</v>
       </c>
       <c r="I86" s="41">
-        <f>IFERROR(I85,"NA")</f>
-        <v>-195389</v>
+        <f ca="1">IFERROR(I85,"NA")</f>
+        <v>-220183.86410000001</v>
       </c>
       <c r="J86" s="41">
         <f ca="1">IFERROR(J85,"NA")</f>
-        <v>-220183.86410000001</v>
-      </c>
-      <c r="K86" s="41">
-        <f ca="1">IFERROR(K85,"NA")</f>
         <v>-248125.19645429001</v>
       </c>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>49</v>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="28">
+        <f>F58-E58</f>
+        <v>0</v>
       </c>
       <c r="G88" s="28">
-        <f>G58-F58</f>
+        <f t="shared" ref="G88:J88" si="17">G58-F58</f>
         <v>0</v>
       </c>
       <c r="H88" s="28">
-        <f t="shared" ref="H88:K88" si="11">H58-G58</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I88" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J88" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K88" s="28">
-        <f t="shared" si="11"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="28">
+        <f>F59-E59</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>67</v>
       </c>
       <c r="G89" s="28">
         <f>G59-F59</f>
@@ -3972,14 +3855,14 @@
         <f>J59-I59</f>
         <v>0</v>
       </c>
-      <c r="K89" s="28">
-        <f>K59-J59</f>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="28">
+        <f>F122</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>68</v>
       </c>
       <c r="G90" s="28">
         <f>G122</f>
@@ -3997,14 +3880,14 @@
         <f>J122</f>
         <v>0</v>
       </c>
-      <c r="K90" s="28">
-        <f>K122</f>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="28">
+        <f>F121</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>69</v>
       </c>
       <c r="G91" s="28">
         <f>G121</f>
@@ -4022,72 +3905,69 @@
         <f>J121</f>
         <v>0</v>
       </c>
-      <c r="K91" s="28">
-        <f>K121</f>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F92" s="41">
+        <f>SUM(F88:F91)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C92" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="G92" s="41">
-        <f>SUM(G88:G91)</f>
+        <f t="shared" ref="G92:J92" si="18">SUM(G88:G91)</f>
         <v>0</v>
       </c>
       <c r="H92" s="41">
-        <f t="shared" ref="H92:K92" si="12">SUM(H88:H91)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I92" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J92" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K92" s="41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F93" s="28"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="12" t="s">
-        <v>71</v>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F94" s="41">
+        <f ca="1">F83+F86+F92</f>
+        <v>-11861.04171030462</v>
       </c>
       <c r="G94" s="41">
         <f ca="1">G83+G86+G92</f>
-        <v>-11861.04171030462</v>
+        <v>4970.1436386212881</v>
       </c>
       <c r="H94" s="41">
         <f ca="1">H83+H86+H92</f>
-        <v>4970.1436386212881</v>
+        <v>24132.092498487007</v>
       </c>
       <c r="I94" s="41">
         <f ca="1">I83+I86+I92</f>
-        <v>24132.092498487007</v>
+        <v>32470.506150157744</v>
       </c>
       <c r="J94" s="41">
         <f ca="1">J83+J86+J92</f>
-        <v>32470.506150157744</v>
-      </c>
-      <c r="K94" s="41">
-        <f ca="1">K83+K86+K92</f>
         <v>40728.762595816166</v>
       </c>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C96" s="13" t="s">
-        <v>72</v>
-      </c>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B96" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
@@ -4095,351 +3975,354 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C97" s="37" t="str">
-        <f>C15</f>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B97" s="37" t="str">
+        <f t="shared" ref="B97:J97" si="19">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
+      <c r="C97" s="38">
+        <f t="shared" si="19"/>
+        <v>2023</v>
+      </c>
       <c r="D97" s="38">
-        <f>D15</f>
-        <v>2023</v>
+        <f t="shared" si="19"/>
+        <v>2024</v>
       </c>
       <c r="E97" s="38">
-        <f>E15</f>
-        <v>2024</v>
-      </c>
-      <c r="F97" s="38">
-        <f>F15</f>
+        <f t="shared" si="19"/>
         <v>2025</v>
       </c>
+      <c r="F97" s="39">
+        <f t="shared" si="19"/>
+        <v>2026</v>
+      </c>
       <c r="G97" s="39">
-        <f>G15</f>
-        <v>2026</v>
+        <f t="shared" si="19"/>
+        <v>2027</v>
       </c>
       <c r="H97" s="39">
-        <f>H15</f>
-        <v>2027</v>
+        <f t="shared" si="19"/>
+        <v>2028</v>
       </c>
       <c r="I97" s="39">
-        <f>I15</f>
-        <v>2028</v>
+        <f t="shared" si="19"/>
+        <v>2029</v>
       </c>
       <c r="J97" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K97" s="39">
-        <f>K15</f>
+        <f t="shared" si="19"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C98" s="14" t="str">
-        <f>C16</f>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B98" s="14" t="str">
+        <f t="shared" ref="B98:J98" si="20">B16</f>
         <v>Fiscal year end date</v>
       </c>
+      <c r="C98" s="40">
+        <f t="shared" si="20"/>
+        <v>45291</v>
+      </c>
       <c r="D98" s="40">
-        <f>D16</f>
-        <v>45291</v>
+        <f t="shared" si="20"/>
+        <v>45657</v>
       </c>
       <c r="E98" s="40">
-        <f>E16</f>
-        <v>45657</v>
+        <f t="shared" si="20"/>
+        <v>46022</v>
       </c>
       <c r="F98" s="40">
-        <f>F16</f>
-        <v>46022</v>
+        <f t="shared" si="20"/>
+        <v>46387</v>
       </c>
       <c r="G98" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="20"/>
+        <v>46752</v>
       </c>
       <c r="H98" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="20"/>
+        <v>47118</v>
       </c>
       <c r="I98" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="20"/>
+        <v>47483</v>
       </c>
       <c r="J98" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K98" s="40">
-        <f>K16</f>
+        <f t="shared" si="20"/>
         <v>47848</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C99" s="12"/>
-      <c r="G99" s="44" t="s">
-        <v>73</v>
-      </c>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B99" s="12"/>
+      <c r="F99" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G99" s="44"/>
       <c r="H99" s="44"/>
       <c r="I99" s="44"/>
       <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C100" s="30" t="s">
-        <v>74</v>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B100" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="28">
+        <f>E103</f>
+        <v>357025</v>
       </c>
       <c r="G100" s="28">
         <f>F103</f>
-        <v>357025</v>
+        <v>475008.39878697303</v>
       </c>
       <c r="H100" s="28">
         <f>G103</f>
-        <v>475008.39878697303</v>
+        <v>589581.5690109923</v>
       </c>
       <c r="I100" s="28">
         <f>H103</f>
-        <v>589581.5690109923</v>
+        <v>711140.86270567973</v>
       </c>
       <c r="J100" s="28">
-        <f>I103</f>
-        <v>711140.86270567973</v>
-      </c>
-      <c r="K100" s="28">
-        <f ca="1">J103</f>
+        <f ca="1">I103</f>
         <v>843722.35348822293</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C101" s="45" t="s">
-        <v>75</v>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B101" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="21">
+        <v>52729</v>
       </c>
       <c r="D101" s="21">
-        <v>52729</v>
+        <v>82999</v>
       </c>
       <c r="E101" s="21">
-        <v>82999</v>
+        <v>131819</v>
       </c>
       <c r="F101" s="21">
-        <v>131819</v>
+        <v>178185</v>
       </c>
       <c r="G101" s="21">
-        <v>178185</v>
+        <v>178424</v>
       </c>
       <c r="H101" s="21">
-        <v>178424</v>
+        <v>195389</v>
       </c>
       <c r="I101" s="21">
-        <v>195389</v>
+        <f ca="1">H101*(1+I39)</f>
+        <v>220183.86410000001</v>
       </c>
       <c r="J101" s="21">
         <f ca="1">I101*(1+J39)</f>
-        <v>220183.86410000001</v>
-      </c>
-      <c r="K101" s="21">
-        <f ca="1">J101*(1+K39)</f>
         <v>248125.19645429001</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C102" s="46" t="s">
-        <v>76</v>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B102" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="47">
+        <v>-30200</v>
       </c>
       <c r="D102" s="47">
-        <v>-30200</v>
+        <v>-32100</v>
       </c>
       <c r="E102" s="47">
-        <v>-32100</v>
-      </c>
-      <c r="F102" s="47">
         <v>-41900</v>
+      </c>
+      <c r="F102" s="48">
+        <f>-(F105*F101)</f>
+        <v>-60201.601213026959</v>
       </c>
       <c r="G102" s="48">
         <f>-(G105*G101)</f>
-        <v>-60201.601213026959</v>
+        <v>-63850.829775980703</v>
       </c>
       <c r="H102" s="48">
         <f>-(H105*H101)</f>
-        <v>-63850.829775980703</v>
+        <v>-73829.706305312604</v>
       </c>
       <c r="I102" s="48">
-        <f>-(I105*I101)</f>
-        <v>-73829.706305312604</v>
+        <f ca="1">-(I105*I101)</f>
+        <v>-87602.373317456775</v>
       </c>
       <c r="J102" s="48">
         <f ca="1">-(J105*J101)</f>
-        <v>-87602.373317456775</v>
-      </c>
-      <c r="K102" s="48">
-        <f ca="1">-(K105*K101)</f>
         <v>-103681.61842052784</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C103" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="41"/>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B103" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41">
+        <f>D51</f>
+        <v>252665</v>
+      </c>
       <c r="E103" s="41">
         <f>E51</f>
-        <v>252665</v>
+        <v>357025</v>
       </c>
       <c r="F103" s="41">
-        <f>F51</f>
-        <v>357025</v>
+        <f>SUM(F100:F102)</f>
+        <v>475008.39878697303</v>
       </c>
       <c r="G103" s="41">
         <f>SUM(G100:G102)</f>
-        <v>475008.39878697303</v>
+        <v>589581.5690109923</v>
       </c>
       <c r="H103" s="41">
         <f>SUM(H100:H102)</f>
-        <v>589581.5690109923</v>
+        <v>711140.86270567973</v>
       </c>
       <c r="I103" s="41">
-        <f>SUM(I100:I102)</f>
-        <v>711140.86270567973</v>
+        <f ca="1">SUM(I100:I102)</f>
+        <v>843722.35348822293</v>
       </c>
       <c r="J103" s="41">
         <f ca="1">SUM(J100:J102)</f>
-        <v>843722.35348822293</v>
-      </c>
-      <c r="K103" s="41">
-        <f ca="1">SUM(K100:K102)</f>
         <v>988165.93152198521</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C104" s="30"/>
-      <c r="M104" s="33" t="s">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B104" s="30"/>
+      <c r="L104" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B105" s="30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C105" s="30" t="s">
-        <v>79</v>
+      <c r="C105" s="50">
+        <f>-(C102/C101)</f>
+        <v>0.57273985852187603</v>
       </c>
       <c r="D105" s="50">
         <f>-(D102/D101)</f>
-        <v>0.57273985852187603</v>
+        <v>0.38675164761021219</v>
       </c>
       <c r="E105" s="50">
         <f>-(E102/E101)</f>
-        <v>0.38675164761021219</v>
-      </c>
-      <c r="F105" s="50">
-        <f>-(F102/F101)</f>
         <v>0.31786009604078319</v>
       </c>
+      <c r="F105" s="34">
+        <f>E105+$L$105</f>
+        <v>0.33786009604078321</v>
+      </c>
       <c r="G105" s="34">
-        <f>F105+$M$105</f>
-        <v>0.33786009604078321</v>
+        <f>F105+$L$105</f>
+        <v>0.35786009604078323</v>
       </c>
       <c r="H105" s="34">
-        <f>G105+$M$105</f>
-        <v>0.35786009604078323</v>
+        <f>G105+$L$105</f>
+        <v>0.37786009604078324</v>
       </c>
       <c r="I105" s="34">
-        <f>H105+$M$105</f>
-        <v>0.37786009604078324</v>
+        <f>H105+$L$105</f>
+        <v>0.39786009604078326</v>
       </c>
       <c r="J105" s="34">
-        <f>I105+$M$105</f>
-        <v>0.39786009604078326</v>
-      </c>
-      <c r="K105" s="34">
-        <f>J105+$M$105</f>
+        <f>I105+$L$105</f>
         <v>0.41786009604078328</v>
       </c>
-      <c r="M105" s="51">
+      <c r="L105" s="51">
         <v>0.02</v>
       </c>
+      <c r="N105" s="52"/>
       <c r="O105" s="52"/>
       <c r="P105" s="52"/>
-      <c r="Q105" s="52"/>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C106" s="30"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B106" s="30"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
+      <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
       <c r="I106" s="34"/>
       <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
+      <c r="N106" s="52"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
-      <c r="Q106" s="52"/>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C107" s="53" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B107" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="54"/>
       <c r="D107" s="54"/>
       <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
+      <c r="F107" s="55"/>
       <c r="G107" s="55"/>
       <c r="H107" s="55"/>
       <c r="I107" s="55"/>
       <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
+      <c r="N107" s="52"/>
       <c r="O107" s="52"/>
       <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C108" s="30" t="s">
-        <v>81</v>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B108" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="28">
+        <f>C110+C102</f>
+        <v>18463</v>
       </c>
       <c r="D108" s="28">
         <f>D110+D102</f>
-        <v>18463</v>
+        <v>20695</v>
       </c>
       <c r="E108" s="28">
         <f>E110+E102</f>
-        <v>20695</v>
-      </c>
-      <c r="F108" s="28">
-        <f>F110+F102</f>
         <v>23856</v>
+      </c>
+      <c r="F108" s="25">
+        <f ca="1">F109*F18</f>
+        <v>26787.902400000003</v>
       </c>
       <c r="G108" s="25">
         <f ca="1">G109*G18</f>
-        <v>26787.902400000003</v>
+        <v>29798.862629760002</v>
       </c>
       <c r="H108" s="25">
         <f ca="1">H109*H18</f>
-        <v>29798.862629760002</v>
+        <v>33580.338297476548</v>
       </c>
       <c r="I108" s="25">
         <f ca="1">I109*I18</f>
-        <v>33580.338297476548</v>
+        <v>37841.683227426322</v>
       </c>
       <c r="J108" s="25">
         <f ca="1">J109*J18</f>
-        <v>37841.683227426322</v>
-      </c>
-      <c r="K108" s="25">
-        <f ca="1">K109*K18</f>
         <v>42643.79282898672</v>
       </c>
+      <c r="N108" s="52"/>
       <c r="O108" s="52"/>
       <c r="P108" s="52"/>
-      <c r="Q108" s="52"/>
-    </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C109" s="29" t="s">
-        <v>82</v>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B109" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="56">
+        <f>C108/C18</f>
+        <v>3.2121575893594996E-2</v>
       </c>
       <c r="D109" s="56">
         <f>D108/D18</f>
-        <v>3.2121575893594996E-2</v>
+        <v>3.2439388738147751E-2</v>
       </c>
       <c r="E109" s="56">
         <f>E108/E18</f>
-        <v>3.2439388738147751E-2</v>
-      </c>
-      <c r="F109" s="56">
-        <f>F108/F18</f>
+        <v>3.3275493636703471E-2</v>
+      </c>
+      <c r="F109" s="34">
+        <f>E109</f>
         <v>3.3275493636703471E-2</v>
       </c>
       <c r="G109" s="34">
@@ -4458,269 +4341,268 @@
         <f>I109</f>
         <v>3.3275493636703471E-2</v>
       </c>
-      <c r="K109" s="34">
-        <f>J109</f>
-        <v>3.3275493636703471E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C110" s="31" t="s">
-        <v>83</v>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B110" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="41">
+        <f>C33</f>
+        <v>48663</v>
       </c>
       <c r="D110" s="41">
         <f>D33</f>
-        <v>48663</v>
+        <v>52795</v>
       </c>
       <c r="E110" s="41">
         <f>E33</f>
-        <v>52795</v>
-      </c>
-      <c r="F110" s="41">
-        <f>F33</f>
         <v>65756</v>
+      </c>
+      <c r="F110" s="26">
+        <f ca="1">-F102+F108</f>
+        <v>86989.503613026958</v>
       </c>
       <c r="G110" s="26">
         <f ca="1">-G102+G108</f>
-        <v>86989.503613026958</v>
+        <v>93649.692405740701</v>
       </c>
       <c r="H110" s="26">
         <f ca="1">-H102+H108</f>
-        <v>93649.692405740701</v>
+        <v>107410.04460278916</v>
       </c>
       <c r="I110" s="26">
         <f ca="1">-I102+I108</f>
-        <v>107410.04460278916</v>
+        <v>125444.05654488309</v>
       </c>
       <c r="J110" s="26">
         <f ca="1">-J102+J108</f>
-        <v>125444.05654488309</v>
-      </c>
-      <c r="K110" s="26">
-        <f ca="1">-K102+K108</f>
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C111" s="30"/>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B111" s="30"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
       <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-    </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C112" s="57" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B112" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
+      <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
       <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C113" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D113" s="28"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B113" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="28"/>
+      <c r="F113" s="58">
+        <f>E116</f>
+        <v>231934</v>
+      </c>
       <c r="G113" s="58">
-        <f>F116</f>
-        <v>231934</v>
+        <f ca="1">F116</f>
+        <v>260438.68859999999</v>
       </c>
       <c r="H113" s="58">
         <f ca="1">G116</f>
-        <v>260438.68859999999</v>
+        <v>289711.99719864002</v>
       </c>
       <c r="I113" s="58">
         <f ca="1">H116</f>
-        <v>289711.99719864002</v>
+        <v>326476.44964314747</v>
       </c>
       <c r="J113" s="58">
         <f ca="1">I116</f>
-        <v>326476.44964314747</v>
-      </c>
-      <c r="K113" s="58">
-        <f ca="1">J116</f>
         <v>367906.31110286288</v>
       </c>
     </row>
-    <row r="114" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C114" s="29" t="s">
-        <v>85</v>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B114" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" s="28">
+        <f ca="1">-(F108)</f>
+        <v>-26787.902400000003</v>
       </c>
       <c r="G114" s="28">
         <f ca="1">-(G108)</f>
-        <v>-26787.902400000003</v>
+        <v>-29798.862629760002</v>
       </c>
       <c r="H114" s="28">
         <f ca="1">-(H108)</f>
-        <v>-29798.862629760002</v>
+        <v>-33580.338297476548</v>
       </c>
       <c r="I114" s="28">
         <f ca="1">-(I108)</f>
-        <v>-33580.338297476548</v>
+        <v>-37841.683227426322</v>
       </c>
       <c r="J114" s="28">
         <f ca="1">-(J108)</f>
-        <v>-37841.683227426322</v>
-      </c>
-      <c r="K114" s="28">
-        <f ca="1">-(K108)</f>
         <v>-42643.79282898672</v>
       </c>
     </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C115" s="59" t="s">
-        <v>86</v>
-      </c>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B115" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="60"/>
       <c r="D115" s="60"/>
       <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
+      <c r="F115" s="61">
+        <f ca="1">F116-F114-F113</f>
+        <v>55292.591000000015</v>
+      </c>
       <c r="G115" s="61">
         <f ca="1">G116-G114-G113</f>
-        <v>55292.591000000015</v>
+        <v>59072.171228400024</v>
       </c>
       <c r="H115" s="61">
         <f ca="1">H116-H114-H113</f>
-        <v>59072.171228400024</v>
+        <v>70344.790741983976</v>
       </c>
       <c r="I115" s="61">
         <f ca="1">I116-I114-I113</f>
-        <v>70344.790741983976</v>
+        <v>79271.544687141723</v>
       </c>
       <c r="J115" s="61">
         <f ca="1">J116-J114-J113</f>
-        <v>79271.544687141723</v>
-      </c>
-      <c r="K115" s="61">
-        <f ca="1">K116-K114-K113</f>
         <v>89331.103707940027</v>
       </c>
     </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C116" s="49" t="s">
-        <v>77</v>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B116" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="41">
+        <f t="shared" ref="D116:J116" si="21">D52</f>
+        <v>181362</v>
       </c>
       <c r="E116" s="41">
-        <f>E52</f>
-        <v>181362</v>
+        <f t="shared" si="21"/>
+        <v>231934</v>
       </c>
       <c r="F116" s="41">
-        <f>F52</f>
-        <v>231934</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>260438.68859999999</v>
       </c>
       <c r="G116" s="41">
-        <f ca="1">G52</f>
-        <v>260438.68859999999</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>289711.99719864002</v>
       </c>
       <c r="H116" s="41">
-        <f ca="1">H52</f>
-        <v>289711.99719864002</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>326476.44964314747</v>
       </c>
       <c r="I116" s="41">
-        <f ca="1">I52</f>
-        <v>326476.44964314747</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>367906.31110286288</v>
       </c>
       <c r="J116" s="41">
-        <f ca="1">J52</f>
-        <v>367906.31110286288</v>
-      </c>
-      <c r="K116" s="41">
-        <f ca="1">K52</f>
+        <f t="shared" ca="1" si="21"/>
         <v>414593.62198181619</v>
       </c>
     </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C117" s="29"/>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B117" s="29"/>
+      <c r="D117" s="28"/>
       <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
       <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-    </row>
-    <row r="118" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C118" s="62" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B118" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="57"/>
       <c r="D118" s="57"/>
       <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-    </row>
-    <row r="119" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C119" s="30" t="s">
-        <v>74</v>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B119" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119" s="28">
+        <f>E123</f>
+        <v>250536</v>
       </c>
       <c r="G119" s="28">
-        <f>F123</f>
-        <v>250536</v>
+        <f ca="1">F123</f>
+        <v>345163.41488104372</v>
       </c>
       <c r="H119" s="28">
         <f ca="1">G123</f>
-        <v>345163.41488104372</v>
+        <v>452443.79079752835</v>
       </c>
       <c r="I119" s="28">
         <f ca="1">H123</f>
-        <v>452443.79079752835</v>
+        <v>586049.18761557061</v>
       </c>
       <c r="J119" s="28">
         <f ca="1">I123</f>
-        <v>586049.18761557061</v>
-      </c>
-      <c r="K119" s="28">
-        <f ca="1">J123</f>
         <v>735669.41207392525</v>
       </c>
     </row>
-    <row r="120" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C120" s="29" t="s">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B120" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="25">
+        <f t="shared" ref="C120:J120" si="22">C31</f>
+        <v>30425</v>
+      </c>
+      <c r="D120" s="25">
+        <f t="shared" si="22"/>
+        <v>59248</v>
+      </c>
+      <c r="E120" s="25">
+        <f t="shared" si="22"/>
+        <v>77670</v>
+      </c>
+      <c r="F120" s="28">
+        <f t="shared" ca="1" si="22"/>
+        <v>94627.414881043718</v>
+      </c>
+      <c r="G120" s="28">
+        <f t="shared" ca="1" si="22"/>
+        <v>107280.37591648466</v>
+      </c>
+      <c r="H120" s="28">
+        <f t="shared" ca="1" si="22"/>
+        <v>133605.39681804227</v>
+      </c>
+      <c r="I120" s="28">
+        <f t="shared" ca="1" si="22"/>
+        <v>149620.22445835467</v>
+      </c>
+      <c r="J120" s="28">
+        <f t="shared" ca="1" si="22"/>
+        <v>167782.27622823761</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B121" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D120" s="25">
-        <f>D31</f>
-        <v>30425</v>
-      </c>
-      <c r="E120" s="25">
-        <f>E31</f>
-        <v>59248</v>
-      </c>
-      <c r="F120" s="25">
-        <f>F31</f>
-        <v>77670</v>
-      </c>
-      <c r="G120" s="28">
-        <f ca="1">G31</f>
-        <v>94627.414881043718</v>
-      </c>
-      <c r="H120" s="28">
-        <f ca="1">H31</f>
-        <v>107280.37591648466</v>
-      </c>
-      <c r="I120" s="28">
-        <f ca="1">I31</f>
-        <v>133605.39681804227</v>
-      </c>
-      <c r="J120" s="28">
-        <f ca="1">J31</f>
-        <v>149620.22445835467</v>
-      </c>
-      <c r="K120" s="28">
-        <f ca="1">K31</f>
-        <v>167782.27622823761</v>
-      </c>
-    </row>
-    <row r="121" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C121" s="29" t="s">
-        <v>89</v>
+      <c r="C121" s="21">
+        <v>0</v>
       </c>
       <c r="D121" s="21">
         <v>0</v>
@@ -4728,7 +4610,8 @@
       <c r="E121" s="21">
         <v>0</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F121" s="28">
+        <f>E121</f>
         <v>0</v>
       </c>
       <c r="G121" s="28">
@@ -4736,25 +4619,24 @@
         <v>0</v>
       </c>
       <c r="H121" s="28">
-        <f>G121</f>
+        <f t="shared" ref="H121:J122" si="23">G121</f>
         <v>0</v>
       </c>
       <c r="I121" s="28">
-        <f t="shared" ref="I121:K122" si="13">H121</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J121" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K121" s="28">
-        <f t="shared" si="13"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B122" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="47">
         <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C122" s="59" t="s">
-        <v>90</v>
       </c>
       <c r="D122" s="47">
         <v>0</v>
@@ -4762,7 +4644,8 @@
       <c r="E122" s="47">
         <v>0</v>
       </c>
-      <c r="F122" s="47">
+      <c r="F122" s="48">
+        <f>E122</f>
         <v>0</v>
       </c>
       <c r="G122" s="48">
@@ -4770,273 +4653,273 @@
         <v>0</v>
       </c>
       <c r="H122" s="48">
-        <f>G122</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I122" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J122" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K122" s="48">
-        <f t="shared" si="13"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B123" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="26">
+        <f>C66</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C123" s="49" t="s">
-        <v>77</v>
       </c>
       <c r="D123" s="26">
         <f>D66</f>
-        <v>0</v>
+        <v>172866</v>
       </c>
       <c r="E123" s="26">
         <f>E66</f>
-        <v>172866</v>
-      </c>
-      <c r="F123" s="26">
-        <f>F66</f>
         <v>250536</v>
+      </c>
+      <c r="F123" s="41">
+        <f ca="1">SUM(F119:F122)</f>
+        <v>345163.41488104372</v>
       </c>
       <c r="G123" s="41">
         <f ca="1">SUM(G119:G122)</f>
-        <v>345163.41488104372</v>
+        <v>452443.79079752835</v>
       </c>
       <c r="H123" s="41">
         <f ca="1">SUM(H119:H122)</f>
-        <v>452443.79079752835</v>
+        <v>586049.18761557061</v>
       </c>
       <c r="I123" s="41">
         <f ca="1">SUM(I119:I122)</f>
-        <v>586049.18761557061</v>
+        <v>735669.41207392525</v>
       </c>
       <c r="J123" s="41">
         <f ca="1">SUM(J119:J122)</f>
-        <v>735669.41207392525</v>
-      </c>
-      <c r="K123" s="41">
-        <f ca="1">SUM(K119:K122)</f>
         <v>903451.6883021628</v>
       </c>
     </row>
-    <row r="124" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D124" s="43"/>
       <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-    </row>
-    <row r="125" spans="3:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="C125" s="28"/>
       <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="64"/>
       <c r="G125" s="64"/>
       <c r="H125" s="64"/>
       <c r="I125" s="64"/>
       <c r="J125" s="64"/>
-      <c r="K125" s="64"/>
-      <c r="S125" s="43"/>
-    </row>
-    <row r="126" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C126" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="R125" s="43"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B126" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="54"/>
       <c r="D126" s="54"/>
       <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
+      <c r="F126" s="65"/>
       <c r="G126" s="65"/>
       <c r="H126" s="65"/>
       <c r="I126" s="65"/>
       <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
-      <c r="R126" s="66"/>
-    </row>
-    <row r="127" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C127" s="37" t="str">
-        <f>C15</f>
+      <c r="Q126" s="66"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B127" s="37" t="str">
+        <f t="shared" ref="B127:J127" si="24">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
+      <c r="C127" s="38">
+        <f t="shared" si="24"/>
+        <v>2023</v>
+      </c>
       <c r="D127" s="38">
-        <f>D15</f>
-        <v>2023</v>
+        <f t="shared" si="24"/>
+        <v>2024</v>
       </c>
       <c r="E127" s="38">
-        <f>E15</f>
-        <v>2024</v>
-      </c>
-      <c r="F127" s="38">
-        <f>F15</f>
+        <f t="shared" si="24"/>
         <v>2025</v>
       </c>
+      <c r="F127" s="39">
+        <f t="shared" si="24"/>
+        <v>2026</v>
+      </c>
       <c r="G127" s="39">
-        <f>G15</f>
-        <v>2026</v>
+        <f t="shared" si="24"/>
+        <v>2027</v>
       </c>
       <c r="H127" s="39">
-        <f>H15</f>
-        <v>2027</v>
+        <f t="shared" si="24"/>
+        <v>2028</v>
       </c>
       <c r="I127" s="39">
-        <f>I15</f>
-        <v>2028</v>
+        <f t="shared" si="24"/>
+        <v>2029</v>
       </c>
       <c r="J127" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K127" s="39">
-        <f>K15</f>
+        <f t="shared" si="24"/>
         <v>2030</v>
       </c>
-      <c r="R127" s="66"/>
-      <c r="S127" s="43"/>
-    </row>
-    <row r="128" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C128" s="14" t="str">
-        <f>C16</f>
+      <c r="Q127" s="66"/>
+      <c r="R127" s="43"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B128" s="14" t="str">
+        <f t="shared" ref="B128:J128" si="25">B16</f>
         <v>Fiscal year end date</v>
       </c>
+      <c r="C128" s="40">
+        <f t="shared" si="25"/>
+        <v>45291</v>
+      </c>
       <c r="D128" s="40">
-        <f>D16</f>
-        <v>45291</v>
+        <f t="shared" si="25"/>
+        <v>45657</v>
       </c>
       <c r="E128" s="40">
-        <f>E16</f>
-        <v>45657</v>
+        <f t="shared" si="25"/>
+        <v>46022</v>
       </c>
       <c r="F128" s="40">
-        <f>F16</f>
-        <v>46022</v>
+        <f t="shared" si="25"/>
+        <v>46387</v>
       </c>
       <c r="G128" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="25"/>
+        <v>46752</v>
       </c>
       <c r="H128" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="25"/>
+        <v>47118</v>
       </c>
       <c r="I128" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="25"/>
+        <v>47483</v>
       </c>
       <c r="J128" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K128" s="40">
-        <f>K16</f>
+        <f t="shared" si="25"/>
         <v>47848</v>
       </c>
-      <c r="R128" s="66"/>
-    </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C129" s="29"/>
+      <c r="Q128" s="66"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B129" s="29"/>
+      <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
+      <c r="F129" s="67"/>
       <c r="G129" s="67"/>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
       <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
-      <c r="R129" s="66"/>
-    </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C130" s="30" t="s">
-        <v>92</v>
+      <c r="Q129" s="66"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B130" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="28">
+        <f>-(C26)</f>
+        <v>3182</v>
       </c>
       <c r="D130" s="28">
         <f>-(D26)</f>
-        <v>3182</v>
+        <v>2406</v>
       </c>
       <c r="E130" s="28">
         <f>-(E26)</f>
-        <v>2406</v>
+        <v>2274</v>
       </c>
       <c r="F130" s="28">
-        <f>-(F26)</f>
-        <v>2274</v>
+        <f>F135</f>
+        <v>2524.4320585773353</v>
       </c>
       <c r="G130" s="28">
-        <f>G135</f>
+        <f t="shared" ref="G130:J130" si="26">G135</f>
         <v>2524.4320585773353</v>
       </c>
       <c r="H130" s="28">
-        <f t="shared" ref="H130:K130" si="14">H135</f>
+        <f t="shared" si="26"/>
         <v>2524.4320585773353</v>
       </c>
       <c r="I130" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2524.4320585773353</v>
       </c>
       <c r="J130" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2524.4320585773353</v>
       </c>
-      <c r="K130" s="28">
-        <f t="shared" si="14"/>
-        <v>2524.4320585773353</v>
-      </c>
-      <c r="R130" s="43"/>
-    </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C131" s="68"/>
-      <c r="R131" s="43"/>
-    </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C132" s="69" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q130" s="43"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B131" s="68"/>
+      <c r="Q131" s="43"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B132" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-    </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C133" s="29" t="s">
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B133" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28">
+        <f t="shared" ref="D133:J133" si="27">D59</f>
+        <v>52623</v>
+      </c>
+      <c r="E133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+      <c r="F133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+      <c r="G133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+      <c r="H133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+      <c r="I133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+      <c r="J133" s="28">
+        <f t="shared" si="27"/>
+        <v>65648</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B134" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28">
-        <f>E59</f>
-        <v>52623</v>
-      </c>
-      <c r="F133" s="28">
-        <f>F59</f>
-        <v>65648</v>
-      </c>
-      <c r="G133" s="28">
-        <f>G59</f>
-        <v>65648</v>
-      </c>
-      <c r="H133" s="28">
-        <f>H59</f>
-        <v>65648</v>
-      </c>
-      <c r="I133" s="28">
-        <f>I59</f>
-        <v>65648</v>
-      </c>
-      <c r="J133" s="28">
-        <f>J59</f>
-        <v>65648</v>
-      </c>
-      <c r="K133" s="28">
-        <f>K59</f>
-        <v>65648</v>
-      </c>
-    </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C134" s="29" t="s">
-        <v>94</v>
+      <c r="D134" s="56">
+        <f t="shared" ref="D134" si="28">D135/AVERAGE(C133:D133)</f>
+        <v>4.5721452596773272E-2</v>
       </c>
       <c r="E134" s="56">
-        <f t="shared" ref="E134" si="15">E135/AVERAGE(D133:E133)</f>
-        <v>4.5721452596773272E-2</v>
-      </c>
-      <c r="F134" s="56">
-        <f>F135/AVERAGE(E133:F133)</f>
+        <f>E135/AVERAGE(D133:E133)</f>
+        <v>3.8454058898631113E-2</v>
+      </c>
+      <c r="F134" s="70">
+        <f>E134</f>
         <v>3.8454058898631113E-2</v>
       </c>
       <c r="G134" s="70">
@@ -5055,24 +4938,24 @@
         <f>I134</f>
         <v>3.8454058898631113E-2</v>
       </c>
-      <c r="K134" s="70">
-        <f>J134</f>
-        <v>3.8454058898631113E-2</v>
-      </c>
-      <c r="R134" s="66"/>
-    </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C135" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" s="41"/>
+      <c r="Q134" s="66"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B135" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41">
+        <f>D130</f>
+        <v>2406</v>
+      </c>
       <c r="E135" s="41">
         <f>E130</f>
-        <v>2406</v>
-      </c>
-      <c r="F135" s="41">
-        <f>F130</f>
         <v>2274</v>
+      </c>
+      <c r="F135" s="26">
+        <f>F134*AVERAGE(E133:F133)</f>
+        <v>2524.4320585773353</v>
       </c>
       <c r="G135" s="26">
         <f>G134*AVERAGE(F133:G133)</f>
@@ -5090,32 +4973,32 @@
         <f>J134*AVERAGE(I133:J133)</f>
         <v>2524.4320585773353</v>
       </c>
-      <c r="K135" s="26">
-        <f>K134*AVERAGE(J133:K133)</f>
-        <v>2524.4320585773353</v>
-      </c>
-    </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E136" s="28"/>
-    </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C137" s="71" t="s">
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D136" s="28"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B137" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B138" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-    </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C138" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" s="72">
+      <c r="C138" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D138" s="73">
         <v>0.03</v>
       </c>
       <c r="E138" s="73">
         <v>0.03</v>
       </c>
-      <c r="F138" s="73">
+      <c r="F138" s="74">
+        <f>E138</f>
         <v>0.03</v>
       </c>
       <c r="G138" s="74">
@@ -5134,60 +5017,57 @@
         <f>I138</f>
         <v>0.03</v>
       </c>
-      <c r="K138" s="74">
-        <f>J138</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C139" s="29" t="s">
-        <v>22</v>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B139" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="28">
+        <f>C25</f>
+        <v>2949</v>
       </c>
       <c r="D139" s="28">
         <f>D25</f>
-        <v>2949</v>
+        <v>4677</v>
       </c>
       <c r="E139" s="28">
         <f>E25</f>
-        <v>4677</v>
-      </c>
-      <c r="F139" s="28">
-        <f>F25</f>
         <v>4381</v>
       </c>
+      <c r="F139" s="25">
+        <f ca="1">IF($C$7=1,AVERAGE(E48,F48)*F138,0)</f>
+        <v>3512.9543743454306</v>
+      </c>
       <c r="G139" s="25">
-        <f ca="1">IF($D$7=1,AVERAGE(F48,G48)*G138,0)</f>
-        <v>3512.9543743454306</v>
+        <f ca="1">IF($C$7=1,AVERAGE(F48,G48)*G138,0)</f>
+        <v>3409.5909032701807</v>
       </c>
       <c r="H139" s="25">
-        <f ca="1">IF($D$7=1,AVERAGE(G48,H48)*H138,0)</f>
-        <v>3409.5909032701807</v>
+        <f ca="1">IF($C$7=1,AVERAGE(G48,H48)*H138,0)</f>
+        <v>3846.124445326805</v>
       </c>
       <c r="I139" s="25">
-        <f ca="1">IF($D$7=1,AVERAGE(H48,I48)*I138,0)</f>
-        <v>3846.124445326805</v>
+        <f ca="1">IF($C$7=1,AVERAGE(H48,I48)*I138,0)</f>
+        <v>4695.1634250564766</v>
       </c>
       <c r="J139" s="25">
-        <f ca="1">IF($D$7=1,AVERAGE(I48,J48)*J138,0)</f>
-        <v>4695.1634250564766</v>
-      </c>
-      <c r="K139" s="25">
-        <f ca="1">IF($D$7=1,AVERAGE(J48,K48)*K138,0)</f>
+        <f ca="1">IF($C$7=1,AVERAGE(I48,J48)*J138,0)</f>
         <v>5793.1524562460845</v>
       </c>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C140" s="75"/>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B140" s="75"/>
+      <c r="C140" s="56"/>
       <c r="D140" s="56"/>
       <c r="E140" s="56"/>
       <c r="F140" s="56"/>
       <c r="G140" s="56"/>
-      <c r="H140" s="56"/>
-    </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B141" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
@@ -5195,187 +5075,187 @@
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-    </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C142" s="12"/>
-    </row>
-    <row r="143" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="76" t="s">
-        <v>98</v>
-      </c>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B143" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" s="77"/>
       <c r="D143" s="77"/>
       <c r="E143" s="77"/>
       <c r="F143" s="77"/>
       <c r="G143" s="77"/>
       <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-    </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D144" s="12"/>
-      <c r="E144" s="78" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C144" s="12"/>
+      <c r="D144" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="79"/>
       <c r="F144" s="79"/>
       <c r="G144" s="79"/>
       <c r="H144" s="79"/>
-      <c r="I144" s="79"/>
-    </row>
-    <row r="145" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="80">
-        <f ca="1">G31</f>
+    </row>
+    <row r="145" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C145" s="80">
+        <f ca="1">F31</f>
         <v>94627.414881043718</v>
       </c>
+      <c r="D145" s="81">
+        <v>-0.05</v>
+      </c>
       <c r="E145" s="81">
-        <v>-0.05</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F145" s="81">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G145" s="81">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H145" s="81">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I145" s="81">
         <v>0.05</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C146" s="82"/>
-      <c r="D146" s="83">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B146" s="82"/>
+      <c r="C146" s="83">
         <v>0.39</v>
       </c>
+      <c r="D146" s="84">
+        <v>103823.41136232308</v>
+      </c>
       <c r="E146" s="84">
-        <v>103823.41136232308</v>
+        <v>106227.41420835082</v>
       </c>
       <c r="F146" s="84">
-        <v>106227.41420835082</v>
+        <v>108631.4170543786</v>
       </c>
       <c r="G146" s="84">
-        <v>108631.4170543786</v>
+        <v>111035.41990040637</v>
       </c>
       <c r="H146" s="84">
-        <v>111035.41990040637</v>
-      </c>
-      <c r="I146" s="84">
         <v>113439.42274643412</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C147" s="85" t="s">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B147" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" s="83">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D147" s="84">
+        <v>101022.6303995475</v>
+      </c>
+      <c r="E147" s="84">
+        <v>103352.92848339677</v>
+      </c>
+      <c r="F147" s="84">
+        <v>105683.22656724622</v>
+      </c>
+      <c r="G147" s="84">
+        <v>108013.52465109568</v>
+      </c>
+      <c r="H147" s="84">
+        <v>110343.82273494515</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B148" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D147" s="83">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E147" s="84">
-        <v>101022.6303995475</v>
-      </c>
-      <c r="F147" s="84">
-        <v>103352.92848339677</v>
-      </c>
-      <c r="G147" s="84">
-        <v>105683.22656724622</v>
-      </c>
-      <c r="H147" s="84">
-        <v>108013.52465109568</v>
-      </c>
-      <c r="I147" s="84">
-        <v>110343.82273494515</v>
-      </c>
-    </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C148" s="85" t="s">
+      <c r="C148" s="83">
+        <v>0.38</v>
+      </c>
+      <c r="D148" s="84">
+        <v>98221.849436771736</v>
+      </c>
+      <c r="E148" s="84">
+        <v>100478.44275844266</v>
+      </c>
+      <c r="F148" s="84">
+        <v>102735.03608011384</v>
+      </c>
+      <c r="G148" s="84">
+        <v>104991.62940178497</v>
+      </c>
+      <c r="H148" s="84">
+        <v>107248.22272345613</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B149" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="D148" s="83">
-        <v>0.38</v>
-      </c>
-      <c r="E148" s="84">
-        <v>98221.849436771736</v>
-      </c>
-      <c r="F148" s="84">
-        <v>100478.44275844266</v>
-      </c>
-      <c r="G148" s="84">
-        <v>102735.03608011384</v>
-      </c>
-      <c r="H148" s="84">
-        <v>104991.62940178497</v>
-      </c>
-      <c r="I148" s="84">
-        <v>107248.22272345613</v>
-      </c>
-    </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="83">
+        <v>0.375</v>
+      </c>
+      <c r="D149" s="84">
+        <v>95421.068473995954</v>
+      </c>
+      <c r="E149" s="84">
+        <v>97603.957033488608</v>
+      </c>
+      <c r="F149" s="84">
+        <v>99786.845592981481</v>
+      </c>
+      <c r="G149" s="84">
+        <v>101969.73415247427</v>
+      </c>
+      <c r="H149" s="84">
+        <v>104152.62271196711</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C150" s="83">
+        <v>0.37</v>
+      </c>
+      <c r="D150" s="84">
+        <v>92620.287511220173</v>
+      </c>
+      <c r="E150" s="84">
+        <v>94729.471308534557</v>
+      </c>
+      <c r="F150" s="84">
+        <v>96838.655105849102</v>
+      </c>
+      <c r="G150" s="84">
+        <v>98947.838903163574</v>
+      </c>
+      <c r="H150" s="84">
+        <v>101057.02270047815</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C151" s="83">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D151" s="84">
+        <v>89819.506548444406</v>
+      </c>
+      <c r="E151" s="84">
+        <v>91854.985583580448</v>
+      </c>
+      <c r="F151" s="84">
+        <v>93890.46461871668</v>
+      </c>
+      <c r="G151" s="84">
+        <v>95925.943653852883</v>
+      </c>
+      <c r="H151" s="84">
+        <v>97961.422688989114</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B153" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D149" s="83">
-        <v>0.375</v>
-      </c>
-      <c r="E149" s="84">
-        <v>95421.068473995954</v>
-      </c>
-      <c r="F149" s="84">
-        <v>97603.957033488608</v>
-      </c>
-      <c r="G149" s="84">
-        <v>99786.845592981481</v>
-      </c>
-      <c r="H149" s="84">
-        <v>101969.73415247427</v>
-      </c>
-      <c r="I149" s="84">
-        <v>104152.62271196711</v>
-      </c>
-    </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="83">
-        <v>0.37</v>
-      </c>
-      <c r="E150" s="84">
-        <v>92620.287511220173</v>
-      </c>
-      <c r="F150" s="84">
-        <v>94729.471308534557</v>
-      </c>
-      <c r="G150" s="84">
-        <v>96838.655105849102</v>
-      </c>
-      <c r="H150" s="84">
-        <v>98947.838903163574</v>
-      </c>
-      <c r="I150" s="84">
-        <v>101057.02270047815</v>
-      </c>
-    </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="83">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E151" s="84">
-        <v>89819.506548444406</v>
-      </c>
-      <c r="F151" s="84">
-        <v>91854.985583580448</v>
-      </c>
-      <c r="G151" s="84">
-        <v>93890.46461871668</v>
-      </c>
-      <c r="H151" s="84">
-        <v>95925.943653852883</v>
-      </c>
-      <c r="I151" s="84">
-        <v>97961.422688989114</v>
-      </c>
-    </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C153" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
@@ -5383,584 +5263,584 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-    </row>
-    <row r="154" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    </row>
+    <row r="154" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="155" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B155" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="86" t="str">
+        <f>C12</f>
+        <v>Base case</v>
+      </c>
+      <c r="E155" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="86" t="str">
-        <f>D12</f>
-        <v>Base case</v>
-      </c>
-      <c r="F155" s="87" t="s">
+      <c r="F155" s="39">
+        <f t="shared" ref="F155:J156" si="29">F15</f>
+        <v>2026</v>
+      </c>
+      <c r="G155" s="39">
+        <f t="shared" si="29"/>
+        <v>2027</v>
+      </c>
+      <c r="H155" s="39">
+        <f t="shared" si="29"/>
+        <v>2028</v>
+      </c>
+      <c r="I155" s="39">
+        <f t="shared" si="29"/>
+        <v>2029</v>
+      </c>
+      <c r="J155" s="39">
+        <f t="shared" si="29"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D156" s="88"/>
+      <c r="E156" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="G155" s="39">
-        <f>G15</f>
-        <v>2026</v>
-      </c>
-      <c r="H155" s="39">
-        <f>H15</f>
-        <v>2027</v>
-      </c>
-      <c r="I155" s="39">
-        <f>I15</f>
-        <v>2028</v>
-      </c>
-      <c r="J155" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K155" s="39">
-        <f>K15</f>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E156" s="88"/>
-      <c r="F156" s="89" t="s">
-        <v>106</v>
+      <c r="F156" s="40">
+        <f t="shared" si="29"/>
+        <v>46387</v>
       </c>
       <c r="G156" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="29"/>
+        <v>46752</v>
       </c>
       <c r="H156" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="29"/>
+        <v>47118</v>
       </c>
       <c r="I156" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="29"/>
+        <v>47483</v>
       </c>
       <c r="J156" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K156" s="40">
-        <f>K16</f>
+        <f t="shared" si="29"/>
         <v>47848</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C157" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="90" t="str">
-        <f ca="1">OFFSET(F$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B157" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="90" t="str">
+        <f t="shared" ref="E157:J160" ca="1" si="30">OFFSET(E$162,MATCH($C$12,$B$163:$B$165,0)+MATCH($B157,$B$162:$B$177,0)-1,0)</f>
         <v>NM</v>
       </c>
+      <c r="F157" s="91">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.1229</v>
+      </c>
       <c r="G157" s="91">
-        <f ca="1">OFFSET(G$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
-        <v>0.1229</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.1124</v>
       </c>
       <c r="H157" s="91">
-        <f ca="1">OFFSET(H$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
-        <v>0.1124</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.12690000000000001</v>
       </c>
       <c r="I157" s="91">
-        <f ca="1">OFFSET(I$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.12690000000000001</v>
       </c>
       <c r="J157" s="91">
-        <f ca="1">OFFSET(J$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.12690000000000001</v>
       </c>
-      <c r="K157" s="91">
-        <f ca="1">OFFSET(K$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C157,$C$162:$C$177,0)-1,0)</f>
-        <v>0.12690000000000001</v>
-      </c>
+      <c r="L157" s="92"/>
       <c r="M157" s="92"/>
       <c r="N157" s="92"/>
       <c r="O157" s="92"/>
-      <c r="P157" s="92"/>
-    </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C158" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F158" s="90" t="str">
-        <f ca="1">OFFSET(F$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B158" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158" s="90" t="str">
+        <f t="shared" ca="1" si="30"/>
         <v>NM</v>
       </c>
+      <c r="F158" s="91">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.35099999999999998</v>
+      </c>
       <c r="G158" s="91">
-        <f ca="1">OFFSET(G$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
-        <v>0.35099999999999998</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.36</v>
       </c>
       <c r="H158" s="91">
-        <f ca="1">OFFSET(H$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
-        <v>0.36</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.37</v>
       </c>
       <c r="I158" s="91">
-        <f ca="1">OFFSET(I$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.37</v>
       </c>
       <c r="J158" s="91">
-        <f ca="1">OFFSET(J$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.37</v>
       </c>
-      <c r="K158" s="91">
-        <f ca="1">OFFSET(K$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C158,$C$162:$C$177,0)-1,0)</f>
-        <v>0.37</v>
-      </c>
+      <c r="L158" s="92"/>
       <c r="M158" s="92"/>
       <c r="N158" s="92"/>
       <c r="O158" s="92"/>
-      <c r="P158" s="92"/>
-    </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C159" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F159" s="90" t="str">
-        <f ca="1">OFFSET(F$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B159" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="90" t="str">
+        <f t="shared" ca="1" si="30"/>
         <v>NM</v>
       </c>
+      <c r="F159" s="91">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.15</v>
+      </c>
       <c r="G159" s="91">
-        <f ca="1">OFFSET(G$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.155</v>
       </c>
       <c r="H159" s="91">
-        <f ca="1">OFFSET(H$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>0.157</v>
       </c>
       <c r="I159" s="91">
-        <f ca="1">OFFSET(I$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.157</v>
       </c>
       <c r="J159" s="91">
-        <f ca="1">OFFSET(J$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0.157</v>
       </c>
-      <c r="K159" s="91">
-        <f ca="1">OFFSET(K$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C159,$C$162:$C$177,0)-1,0)</f>
-        <v>0.157</v>
-      </c>
+      <c r="L159" s="92"/>
       <c r="M159" s="92"/>
       <c r="N159" s="92"/>
       <c r="O159" s="92"/>
-      <c r="P159" s="92"/>
-    </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C160" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F160" s="90" t="str">
-        <f ca="1">OFFSET(F$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B160" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="90" t="str">
+        <f t="shared" ca="1" si="30"/>
         <v>NM</v>
       </c>
+      <c r="F160" s="91">
+        <f t="shared" ca="1" si="30"/>
+        <v>7.5899999999999995E-2</v>
+      </c>
       <c r="G160" s="91">
-        <f ca="1">OFFSET(G$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
-        <v>7.5899999999999995E-2</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="H160" s="91">
-        <f ca="1">OFFSET(H$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
-        <v>7.4700000000000003E-2</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I160" s="91">
-        <f ca="1">OFFSET(I$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="J160" s="91">
-        <f ca="1">OFFSET(J$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K160" s="91">
-        <f ca="1">OFFSET(K$162,MATCH($D$12,$C$163:$C$165,0)+MATCH($C160,$C$162:$C$177,0)-1,0)</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
+      <c r="L160" s="92"/>
       <c r="M160" s="92"/>
       <c r="N160" s="92"/>
       <c r="O160" s="92"/>
-      <c r="P160" s="92"/>
-    </row>
-    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F161" s="93"/>
-    </row>
-    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C162" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F162" s="93"/>
-    </row>
-    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C163" s="94" t="s">
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="E161" s="93"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B162" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="93"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B163" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E163" s="95">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F163" s="34">
+        <f>F164+$E$163</f>
+        <v>0.1479</v>
+      </c>
+      <c r="G163" s="34">
+        <f>G164+$E$163</f>
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="H163" s="34">
+        <f>H164+$E$163</f>
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="I163" s="34">
+        <f>I164+$E$163</f>
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="J163" s="34">
+        <f>J164+$E$163</f>
+        <v>0.15190000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B164" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="F163" s="95">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G163" s="34">
-        <f>G164+$F$163</f>
-        <v>0.1479</v>
-      </c>
-      <c r="H163" s="34">
-        <f>H164+$F$163</f>
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="I163" s="34">
-        <f>I164+$F$163</f>
-        <v>0.15190000000000001</v>
-      </c>
-      <c r="J163" s="34">
-        <f>J164+$F$163</f>
-        <v>0.15190000000000001</v>
-      </c>
-      <c r="K163" s="34">
-        <f>K164+$F$163</f>
-        <v>0.15190000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C164" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="96" t="s">
-        <v>108</v>
+      <c r="F164" s="35">
+        <v>0.1229</v>
       </c>
       <c r="G164" s="35">
-        <v>0.1229</v>
+        <v>0.1124</v>
       </c>
       <c r="H164" s="35">
-        <v>0.1124</v>
-      </c>
-      <c r="I164" s="35">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="I164" s="34">
+        <f>H164</f>
         <v>0.12690000000000001</v>
       </c>
       <c r="J164" s="34">
         <f>I164</f>
         <v>0.12690000000000001</v>
       </c>
-      <c r="K164" s="34">
-        <f>J164</f>
-        <v>0.12690000000000001</v>
-      </c>
+      <c r="N164" s="35"/>
       <c r="O164" s="35"/>
       <c r="P164" s="35"/>
       <c r="Q164" s="35"/>
       <c r="R164" s="35"/>
-      <c r="S164" s="35"/>
-    </row>
-    <row r="165" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C165" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F165" s="95">
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B165" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E165" s="95">
         <v>-2.5000000000000001E-2</v>
       </c>
+      <c r="F165" s="34">
+        <f>F164+$E$165</f>
+        <v>9.7899999999999987E-2</v>
+      </c>
       <c r="G165" s="34">
-        <f>G164+$F$165</f>
-        <v>9.7899999999999987E-2</v>
+        <f>G164+$E$165</f>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="H165" s="34">
-        <f>H164+$F$165</f>
-        <v>8.7400000000000005E-2</v>
+        <f>H164+$E$165</f>
+        <v>0.10190000000000002</v>
       </c>
       <c r="I165" s="34">
-        <f>I164+$F$165</f>
+        <f>I164+$E$165</f>
         <v>0.10190000000000002</v>
       </c>
       <c r="J165" s="34">
-        <f>J164+$F$165</f>
+        <f>J164+$E$165</f>
         <v>0.10190000000000002</v>
       </c>
-      <c r="K165" s="34">
-        <f>K164+$F$165</f>
-        <v>0.10190000000000002</v>
-      </c>
+      <c r="N165" s="35"/>
       <c r="O165" s="35"/>
       <c r="P165" s="35"/>
       <c r="Q165" s="35"/>
       <c r="R165" s="35"/>
-      <c r="S165" s="35"/>
-    </row>
-    <row r="166" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C166" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F166" s="96"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B166" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="96"/>
+      <c r="F166" s="35"/>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
       <c r="J166" s="35"/>
-      <c r="K166" s="35"/>
+      <c r="N166" s="35"/>
       <c r="O166" s="35"/>
       <c r="P166" s="35"/>
       <c r="Q166" s="35"/>
       <c r="R166" s="35"/>
-      <c r="S166" s="35"/>
-    </row>
-    <row r="167" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C167" s="94" t="s">
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B167" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E167" s="95">
+        <v>0.01</v>
+      </c>
+      <c r="F167" s="34">
+        <f>F168+$E$167</f>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G167" s="34">
+        <f>G168+$E$167</f>
+        <v>0.37</v>
+      </c>
+      <c r="H167" s="34">
+        <f>H168+$E$167</f>
+        <v>0.38</v>
+      </c>
+      <c r="I167" s="34">
+        <f>I168+$E$167</f>
+        <v>0.38</v>
+      </c>
+      <c r="J167" s="34">
+        <f>J168+$E$167</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B168" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="F167" s="95">
-        <v>0.01</v>
-      </c>
-      <c r="G167" s="34">
-        <f>G168+$F$167</f>
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="H167" s="34">
-        <f>H168+$F$167</f>
+      <c r="F168" s="35">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G168" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="H168" s="35">
         <v>0.37</v>
       </c>
-      <c r="I167" s="34">
-        <f>I168+$F$167</f>
-        <v>0.38</v>
-      </c>
-      <c r="J167" s="34">
-        <f>J168+$F$167</f>
-        <v>0.38</v>
-      </c>
-      <c r="K167" s="34">
-        <f>K168+$F$167</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="168" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C168" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="G168" s="35">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="H168" s="35">
-        <v>0.36</v>
-      </c>
-      <c r="I168" s="35">
+      <c r="I168" s="34">
+        <f>H168</f>
         <v>0.37</v>
       </c>
       <c r="J168" s="34">
         <f>I168</f>
         <v>0.37</v>
       </c>
-      <c r="K168" s="34">
-        <f>J168</f>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="169" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C169" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F169" s="95">
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B169" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" s="95">
         <v>-0.01</v>
       </c>
+      <c r="F169" s="34">
+        <f>F168+$E$169</f>
+        <v>0.34099999999999997</v>
+      </c>
       <c r="G169" s="34">
-        <f>G168+$F$169</f>
-        <v>0.34099999999999997</v>
+        <f>G168+$E$169</f>
+        <v>0.35</v>
       </c>
       <c r="H169" s="34">
-        <f>H168+$F$169</f>
-        <v>0.35</v>
+        <f>H168+$E$169</f>
+        <v>0.36</v>
       </c>
       <c r="I169" s="34">
-        <f>I168+$F$169</f>
+        <f>I168+$E$169</f>
         <v>0.36</v>
       </c>
       <c r="J169" s="34">
-        <f>J168+$F$169</f>
+        <f>J168+$E$169</f>
         <v>0.36</v>
       </c>
-      <c r="K169" s="34">
-        <f>K168+$F$169</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="170" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C170" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F170" s="96"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B170" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="96"/>
+      <c r="F170" s="97"/>
       <c r="G170" s="97"/>
       <c r="H170" s="97"/>
       <c r="I170" s="97"/>
       <c r="J170" s="97"/>
-      <c r="K170" s="97"/>
-    </row>
-    <row r="171" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C171" s="94" t="s">
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B171" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E171" s="95">
+        <v>-0.01</v>
+      </c>
+      <c r="F171" s="34">
+        <f>F172+$E$171</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="G171" s="34">
+        <f>G172+$E$171</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H171" s="34">
+        <f>H172+$E$171</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I171" s="34">
+        <f>I172+$E$171</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J171" s="34">
+        <f>J172+$E$171</f>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B172" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="F171" s="95">
-        <v>-0.01</v>
-      </c>
-      <c r="G171" s="34">
-        <f>G172+$F$171</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="H171" s="34">
-        <f>H172+$F$171</f>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="I171" s="34">
-        <f>I172+$F$171</f>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="J171" s="34">
-        <f>J172+$F$171</f>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="K171" s="34">
-        <f>K172+$F$171</f>
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C172" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="96" t="s">
-        <v>108</v>
+      <c r="F172" s="35">
+        <v>0.15</v>
       </c>
       <c r="G172" s="35">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H172" s="35">
-        <v>0.155</v>
-      </c>
-      <c r="I172" s="35">
+        <v>0.157</v>
+      </c>
+      <c r="I172" s="34">
+        <f>H172</f>
         <v>0.157</v>
       </c>
       <c r="J172" s="34">
         <f>I172</f>
         <v>0.157</v>
       </c>
-      <c r="K172" s="34">
-        <f>J172</f>
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="173" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C173" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F173" s="95">
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B173" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E173" s="95">
         <v>0.01</v>
       </c>
+      <c r="F173" s="34">
+        <f>F172+$E$173</f>
+        <v>0.16</v>
+      </c>
       <c r="G173" s="34">
-        <f>G172+$F$173</f>
-        <v>0.16</v>
+        <f>G172+$E$173</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H173" s="34">
-        <f>H172+$F$173</f>
-        <v>0.16500000000000001</v>
+        <f>H172+$E$173</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I173" s="34">
-        <f>I172+$F$173</f>
+        <f>I172+$E$173</f>
         <v>0.16700000000000001</v>
       </c>
       <c r="J173" s="34">
-        <f>J172+$F$173</f>
+        <f>J172+$E$173</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="K173" s="34">
-        <f>K172+$F$173</f>
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C174" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F174" s="96"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B174" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="96"/>
+      <c r="F174" s="97"/>
       <c r="G174" s="97"/>
       <c r="H174" s="97"/>
       <c r="I174" s="97"/>
       <c r="J174" s="97"/>
-      <c r="K174" s="97"/>
-    </row>
-    <row r="175" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C175" s="94" t="s">
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B175" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E175" s="95">
+        <v>-0.01</v>
+      </c>
+      <c r="F175" s="34">
+        <f>F176+$E$175</f>
+        <v>6.59E-2</v>
+      </c>
+      <c r="G175" s="34">
+        <f>G176+$E$175</f>
+        <v>6.4700000000000008E-2</v>
+      </c>
+      <c r="H175" s="34">
+        <f>H176+$E$175</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I175" s="34">
+        <f>I176+$E$175</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J175" s="34">
+        <f>J176+$E$175</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B176" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="F175" s="95">
-        <v>-0.01</v>
-      </c>
-      <c r="G175" s="34">
-        <f>G176+$F$175</f>
-        <v>6.59E-2</v>
-      </c>
-      <c r="H175" s="34">
-        <f>H176+$F$175</f>
-        <v>6.4700000000000008E-2</v>
-      </c>
-      <c r="I175" s="34">
-        <f>I176+$F$175</f>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J175" s="34">
-        <f>J176+$F$175</f>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="K175" s="34">
-        <f>K176+$F$175</f>
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C176" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="96" t="s">
-        <v>108</v>
+      <c r="F176" s="35">
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="G176" s="35">
-        <v>7.5899999999999995E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="H176" s="35">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="I176" s="35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I176" s="34">
+        <f>H176</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="J176" s="34">
         <f>I176</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K176" s="34">
-        <f>J176</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="94" t="s">
+    </row>
+    <row r="177" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B177" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E177" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="F177" s="34">
+        <f>F176+$E$177</f>
+        <v>8.589999999999999E-2</v>
+      </c>
+      <c r="G177" s="34">
+        <f>G176+$E$177</f>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="H177" s="34">
+        <f>H176+$E$177</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I177" s="34">
+        <f>I176+$E$177</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J177" s="34">
+        <f>J176+$E$177</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B179" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F177" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="G177" s="34">
-        <f>G176+$F$177</f>
-        <v>8.589999999999999E-2</v>
-      </c>
-      <c r="H177" s="34">
-        <f>H176+$F$177</f>
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="I177" s="34">
-        <f>I176+$F$177</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J177" s="34">
-        <f>J176+$F$177</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="K177" s="34">
-        <f>K176+$F$177</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C179" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
@@ -5968,282 +5848,285 @@
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
-      <c r="K179" s="13"/>
-    </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C180" s="37" t="str">
-        <f>C15</f>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B180" s="37" t="str">
+        <f t="shared" ref="B180:J180" si="31">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
+      <c r="C180" s="38">
+        <f t="shared" si="31"/>
+        <v>2023</v>
+      </c>
       <c r="D180" s="38">
-        <f>D15</f>
-        <v>2023</v>
+        <f t="shared" si="31"/>
+        <v>2024</v>
       </c>
       <c r="E180" s="38">
-        <f>E15</f>
-        <v>2024</v>
-      </c>
-      <c r="F180" s="38">
-        <f>F15</f>
+        <f t="shared" si="31"/>
         <v>2025</v>
       </c>
+      <c r="F180" s="39">
+        <f t="shared" si="31"/>
+        <v>2026</v>
+      </c>
       <c r="G180" s="39">
-        <f>G15</f>
-        <v>2026</v>
+        <f t="shared" si="31"/>
+        <v>2027</v>
       </c>
       <c r="H180" s="39">
-        <f>H15</f>
-        <v>2027</v>
+        <f t="shared" si="31"/>
+        <v>2028</v>
       </c>
       <c r="I180" s="39">
-        <f>I15</f>
-        <v>2028</v>
+        <f t="shared" si="31"/>
+        <v>2029</v>
       </c>
       <c r="J180" s="39">
-        <f>J15</f>
-        <v>2029</v>
-      </c>
-      <c r="K180" s="39">
-        <f>K15</f>
+        <f t="shared" si="31"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C181" s="14" t="str">
-        <f>C16</f>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B181" s="14" t="str">
+        <f t="shared" ref="B181:J181" si="32">B16</f>
         <v>Fiscal year end date</v>
       </c>
+      <c r="C181" s="40">
+        <f t="shared" si="32"/>
+        <v>45291</v>
+      </c>
       <c r="D181" s="40">
-        <f>D16</f>
-        <v>45291</v>
+        <f t="shared" si="32"/>
+        <v>45657</v>
       </c>
       <c r="E181" s="40">
-        <f>E16</f>
-        <v>45657</v>
+        <f t="shared" si="32"/>
+        <v>46022</v>
       </c>
       <c r="F181" s="40">
-        <f>F16</f>
-        <v>46022</v>
+        <f t="shared" si="32"/>
+        <v>46387</v>
       </c>
       <c r="G181" s="40">
-        <f>G16</f>
-        <v>46387</v>
+        <f t="shared" si="32"/>
+        <v>46752</v>
       </c>
       <c r="H181" s="40">
-        <f>H16</f>
-        <v>46752</v>
+        <f t="shared" si="32"/>
+        <v>47118</v>
       </c>
       <c r="I181" s="40">
-        <f>I16</f>
-        <v>47118</v>
+        <f t="shared" si="32"/>
+        <v>47483</v>
       </c>
       <c r="J181" s="40">
-        <f>J16</f>
-        <v>47483</v>
-      </c>
-      <c r="K181" s="40">
-        <f>K16</f>
+        <f t="shared" si="32"/>
         <v>47848</v>
       </c>
     </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F182" s="35"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
+      <c r="I182" s="34"/>
       <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
-    </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
-        <v>28</v>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="99">
+        <f t="shared" ref="C183:J183" si="33">C31</f>
+        <v>30425</v>
       </c>
       <c r="D183" s="99">
-        <f>D31</f>
-        <v>30425</v>
+        <f t="shared" si="33"/>
+        <v>59248</v>
       </c>
       <c r="E183" s="99">
-        <f>E31</f>
-        <v>59248</v>
+        <f t="shared" si="33"/>
+        <v>77670</v>
       </c>
       <c r="F183" s="99">
-        <f>F31</f>
-        <v>77670</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>94627.414881043718</v>
       </c>
       <c r="G183" s="99">
-        <f ca="1">G31</f>
-        <v>94627.414881043718</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>107280.37591648466</v>
       </c>
       <c r="H183" s="99">
-        <f ca="1">H31</f>
-        <v>107280.37591648466</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>133605.39681804227</v>
       </c>
       <c r="I183" s="99">
-        <f ca="1">I31</f>
-        <v>133605.39681804227</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>149620.22445835467</v>
       </c>
       <c r="J183" s="99">
-        <f ca="1">J31</f>
-        <v>149620.22445835467</v>
-      </c>
-      <c r="K183" s="99">
-        <f ca="1">K31</f>
+        <f t="shared" ca="1" si="33"/>
         <v>167782.27622823761</v>
       </c>
     </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B184" t="s">
+        <v>110</v>
+      </c>
+      <c r="C184" s="100">
+        <v>10304</v>
+      </c>
+      <c r="D184" s="100">
+        <v>10473</v>
+      </c>
+      <c r="E184" s="100">
+        <v>10656</v>
+      </c>
+      <c r="F184" s="99">
+        <f ca="1">E184+(-F190+F191)/F192</f>
+        <v>10760.09283</v>
+      </c>
+      <c r="G184" s="99">
+        <f t="shared" ref="G184:J184" ca="1" si="34">F184+(-G190+G191)/G192</f>
+        <v>10860.782277036522</v>
+      </c>
+      <c r="H184" s="99">
+        <f t="shared" ca="1" si="34"/>
+        <v>10959.449179528223</v>
+      </c>
+      <c r="I184" s="99">
+        <f t="shared" ca="1" si="34"/>
+        <v>11056.134164239438</v>
+      </c>
+      <c r="J184" s="99">
+        <f t="shared" ca="1" si="34"/>
+        <v>11150.877041866455</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B185" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="100">
-        <v>10304</v>
-      </c>
-      <c r="E184" s="100">
-        <v>10473</v>
-      </c>
-      <c r="F184" s="100">
-        <v>10656</v>
-      </c>
-      <c r="G184" s="99">
-        <f ca="1">F184+(-G190+G191)/G192</f>
-        <v>10760.09283</v>
-      </c>
-      <c r="H184" s="99">
-        <f t="shared" ref="H184:K184" ca="1" si="16">G184+(-H190+H191)/H192</f>
-        <v>10860.782277036522</v>
-      </c>
-      <c r="I184" s="99">
-        <f t="shared" ca="1" si="16"/>
-        <v>10959.449179528223</v>
-      </c>
-      <c r="J184" s="99">
-        <f t="shared" ca="1" si="16"/>
-        <v>11056.134164239438</v>
-      </c>
-      <c r="K184" s="99">
-        <f t="shared" ca="1" si="16"/>
-        <v>11150.877041866455</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C185" s="12" t="s">
-        <v>112</v>
+      <c r="C185" s="101">
+        <f t="shared" ref="C185:J185" si="35">C183/C184</f>
+        <v>2.9527368012422359</v>
       </c>
       <c r="D185" s="101">
-        <f t="shared" ref="D185:K185" si="17">D183/D184</f>
-        <v>2.9527368012422359</v>
+        <f t="shared" si="35"/>
+        <v>5.6572137878353859</v>
       </c>
       <c r="E185" s="101">
-        <f t="shared" si="17"/>
-        <v>5.6572137878353859</v>
+        <f t="shared" si="35"/>
+        <v>7.2888513513513518</v>
       </c>
       <c r="F185" s="101">
-        <f t="shared" si="17"/>
-        <v>7.2888513513513518</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>8.7942935415217711</v>
       </c>
       <c r="G185" s="101">
-        <f t="shared" ca="1" si="17"/>
-        <v>8.7942935415217711</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>9.8777761288257064</v>
       </c>
       <c r="H185" s="101">
-        <f t="shared" ca="1" si="17"/>
-        <v>9.8777761288257064</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>12.190886113839678</v>
       </c>
       <c r="I185" s="101">
-        <f t="shared" ca="1" si="17"/>
-        <v>12.190886113839678</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>13.532779381630016</v>
       </c>
       <c r="J185" s="101">
-        <f t="shared" ca="1" si="17"/>
-        <v>13.532779381630016</v>
-      </c>
-      <c r="K185" s="101">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="35"/>
         <v>15.046554239481946</v>
       </c>
     </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C186" s="21"/>
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="28"/>
-    </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+      <c r="F186" s="28"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>112</v>
+      </c>
+      <c r="C187" s="100">
+        <v>10492</v>
+      </c>
+      <c r="D187" s="100">
+        <v>10721</v>
+      </c>
+      <c r="E187" s="100">
+        <v>10827</v>
+      </c>
+      <c r="F187" s="99">
+        <f ca="1">F184+E187-E184</f>
+        <v>10931.092830000001</v>
+      </c>
+      <c r="G187" s="99">
+        <f t="shared" ref="G187:J187" ca="1" si="36">G184+F187-F184</f>
+        <v>11031.782277036526</v>
+      </c>
+      <c r="H187" s="99">
+        <f t="shared" ca="1" si="36"/>
+        <v>11130.449179528225</v>
+      </c>
+      <c r="I187" s="99">
+        <f t="shared" ca="1" si="36"/>
+        <v>11227.13416423944</v>
+      </c>
+      <c r="J187" s="99">
+        <f t="shared" ca="1" si="36"/>
+        <v>11321.877041866459</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B188" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D187" s="100">
-        <v>10492</v>
-      </c>
-      <c r="E187" s="100">
-        <v>10721</v>
-      </c>
-      <c r="F187" s="100">
-        <v>10827</v>
-      </c>
-      <c r="G187" s="99">
-        <f ca="1">G184+F187-F184</f>
-        <v>10931.092830000001</v>
-      </c>
-      <c r="H187" s="99">
-        <f t="shared" ref="H187:K187" ca="1" si="18">H184+G187-G184</f>
-        <v>11031.782277036526</v>
-      </c>
-      <c r="I187" s="99">
-        <f t="shared" ca="1" si="18"/>
-        <v>11130.449179528225</v>
-      </c>
-      <c r="J187" s="99">
-        <f t="shared" ca="1" si="18"/>
-        <v>11227.13416423944</v>
-      </c>
-      <c r="K187" s="99">
-        <f t="shared" ca="1" si="18"/>
-        <v>11321.877041866459</v>
-      </c>
-    </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="101">
+        <f>C183/C187</f>
+        <v>2.8998284407167367</v>
+      </c>
+      <c r="D188" s="101">
+        <f t="shared" ref="D188:J188" si="37">D183/D187</f>
+        <v>5.5263501539035538</v>
+      </c>
+      <c r="E188" s="101">
+        <f t="shared" si="37"/>
+        <v>7.1737323358270988</v>
+      </c>
+      <c r="F188" s="101">
+        <f t="shared" ca="1" si="37"/>
+        <v>8.6567204535434996</v>
+      </c>
+      <c r="G188" s="101">
+        <f t="shared" ca="1" si="37"/>
+        <v>9.7246639955718432</v>
+      </c>
+      <c r="H188" s="101">
+        <f t="shared" ca="1" si="37"/>
+        <v>12.003594344042931</v>
+      </c>
+      <c r="I188" s="101">
+        <f t="shared" ca="1" si="37"/>
+        <v>13.326662197992038</v>
+      </c>
+      <c r="J188" s="101">
+        <f t="shared" ca="1" si="37"/>
+        <v>14.819298567526042</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="F189" s="102"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B190" t="s">
         <v>114</v>
       </c>
-      <c r="D188" s="101">
-        <f>D183/D187</f>
-        <v>2.8998284407167367</v>
-      </c>
-      <c r="E188" s="101">
-        <f t="shared" ref="E188:K188" si="19">E183/E187</f>
-        <v>5.5263501539035538</v>
-      </c>
-      <c r="F188" s="101">
-        <f t="shared" si="19"/>
-        <v>7.1737323358270988</v>
-      </c>
-      <c r="G188" s="101">
-        <f t="shared" ca="1" si="19"/>
-        <v>8.6567204535434996</v>
-      </c>
-      <c r="H188" s="101">
-        <f t="shared" ca="1" si="19"/>
-        <v>9.7246639955718432</v>
-      </c>
-      <c r="I188" s="101">
-        <f t="shared" ca="1" si="19"/>
-        <v>12.003594344042931</v>
-      </c>
-      <c r="J188" s="101">
-        <f t="shared" ca="1" si="19"/>
-        <v>13.326662197992038</v>
-      </c>
-      <c r="K188" s="101">
-        <f t="shared" ca="1" si="19"/>
-        <v>14.819298567526042</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G189" s="102"/>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
-        <v>115</v>
+      <c r="F190" s="99">
+        <f>-(F122)</f>
+        <v>0</v>
       </c>
       <c r="G190" s="99">
         <f>-(G122)</f>
@@ -6261,63 +6144,62 @@
         <f>-(J122)</f>
         <v>0</v>
       </c>
-      <c r="K190" s="99">
-        <f>-(K122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>116</v>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B191" t="s">
+        <v>115</v>
+      </c>
+      <c r="F191" s="103">
+        <f ca="1">F35</f>
+        <v>21859.494299999998</v>
       </c>
       <c r="G191" s="103">
         <f ca="1">G35</f>
-        <v>21859.494299999998</v>
+        <v>24316.501459319999</v>
       </c>
       <c r="H191" s="103">
         <f ca="1">H35</f>
-        <v>24316.501459319999</v>
+        <v>27402.265494507708</v>
       </c>
       <c r="I191" s="103">
         <f ca="1">I35</f>
-        <v>27402.265494507708</v>
+        <v>30879.612985760738</v>
       </c>
       <c r="J191" s="103">
         <f ca="1">J35</f>
-        <v>30879.612985760738</v>
-      </c>
-      <c r="K191" s="103">
-        <f ca="1">K35</f>
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>117</v>
-      </c>
-      <c r="G192" s="104">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B192" t="s">
+        <v>116</v>
+      </c>
+      <c r="F192" s="104">
         <v>210</v>
+      </c>
+      <c r="G192" s="105">
+        <f>F192*(1+G193)</f>
+        <v>241.49999999999997</v>
       </c>
       <c r="H192" s="105">
         <f>G192*(1+H193)</f>
-        <v>241.49999999999997</v>
+        <v>277.72499999999997</v>
       </c>
       <c r="I192" s="105">
         <f>H192*(1+I193)</f>
-        <v>277.72499999999997</v>
+        <v>319.38374999999996</v>
       </c>
       <c r="J192" s="105">
         <f>I192*(1+J193)</f>
-        <v>319.38374999999996</v>
-      </c>
-      <c r="K192" s="105">
-        <f>J192*(1+K193)</f>
         <v>367.29131249999995</v>
       </c>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>118</v>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>117</v>
+      </c>
+      <c r="G193" s="106">
+        <v>0.15</v>
       </c>
       <c r="H193" s="106">
         <v>0.15</v>
@@ -6328,14 +6210,12 @@
       <c r="J193" s="106">
         <v>0.15</v>
       </c>
-      <c r="K193" s="106">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="194" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="107" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="194" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B194" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="77"/>
       <c r="D194" s="77"/>
       <c r="E194" s="77"/>
       <c r="F194" s="77"/>
@@ -6343,120 +6223,120 @@
       <c r="H194" s="77"/>
       <c r="I194" s="77"/>
       <c r="J194" s="77"/>
-      <c r="K194" s="77"/>
-    </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C195" s="12" t="s">
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B195" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="82" t="s">
+      <c r="F195" s="108">
+        <f>C11</f>
+        <v>10734.92087</v>
+      </c>
+      <c r="G195" s="109">
+        <f ca="1">F197</f>
+        <v>10839.0137</v>
+      </c>
+      <c r="H195" s="109">
+        <f t="shared" ref="H195:J195" ca="1" si="38">G197</f>
+        <v>10939.703147036522</v>
+      </c>
+      <c r="I195" s="109">
+        <f t="shared" ca="1" si="38"/>
+        <v>11038.370049528223</v>
+      </c>
+      <c r="J195" s="109">
+        <f t="shared" ca="1" si="38"/>
+        <v>11135.055034239438</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B196" t="s">
         <v>121</v>
       </c>
-      <c r="G195" s="108">
-        <f>D11</f>
-        <v>10734.92087</v>
-      </c>
-      <c r="H195" s="109">
-        <f ca="1">G197</f>
+      <c r="F196" s="99">
+        <f ca="1">(-F190+F191)/F192</f>
+        <v>104.09282999999999</v>
+      </c>
+      <c r="G196" s="99">
+        <f t="shared" ref="G196:J196" ca="1" si="39">(-G190+G191)/G192</f>
+        <v>100.68944703652174</v>
+      </c>
+      <c r="H196" s="99">
+        <f t="shared" ca="1" si="39"/>
+        <v>98.66690249170118</v>
+      </c>
+      <c r="I196" s="99">
+        <f t="shared" ca="1" si="39"/>
+        <v>96.684984711215705</v>
+      </c>
+      <c r="J196" s="99">
+        <f t="shared" ca="1" si="39"/>
+        <v>94.742877627016526</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B197" t="s">
+        <v>122</v>
+      </c>
+      <c r="F197" s="99">
+        <f ca="1">SUM(F195:F196)</f>
         <v>10839.0137</v>
       </c>
-      <c r="I195" s="109">
-        <f t="shared" ref="I195:K195" ca="1" si="20">H197</f>
+      <c r="G197" s="99">
+        <f t="shared" ref="G197:J197" ca="1" si="40">SUM(G195:G196)</f>
         <v>10939.703147036522</v>
       </c>
-      <c r="J195" s="109">
-        <f t="shared" ca="1" si="20"/>
+      <c r="H197" s="99">
+        <f t="shared" ca="1" si="40"/>
         <v>11038.370049528223</v>
       </c>
-      <c r="K195" s="109">
-        <f t="shared" ca="1" si="20"/>
+      <c r="I197" s="99">
+        <f t="shared" ca="1" si="40"/>
         <v>11135.055034239438</v>
       </c>
-    </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
-        <v>122</v>
-      </c>
-      <c r="G196" s="99">
-        <f ca="1">(-G190+G191)/G192</f>
-        <v>104.09282999999999</v>
-      </c>
-      <c r="H196" s="99">
-        <f t="shared" ref="H196:K196" ca="1" si="21">(-H190+H191)/H192</f>
-        <v>100.68944703652174</v>
-      </c>
-      <c r="I196" s="99">
-        <f t="shared" ca="1" si="21"/>
-        <v>98.66690249170118</v>
-      </c>
-      <c r="J196" s="99">
-        <f t="shared" ca="1" si="21"/>
-        <v>96.684984711215705</v>
-      </c>
-      <c r="K196" s="99">
-        <f t="shared" ca="1" si="21"/>
-        <v>94.742877627016526</v>
-      </c>
-    </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
+      <c r="J197" s="99">
+        <f t="shared" ca="1" si="40"/>
+        <v>11229.797911866455</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B198" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G197" s="99">
-        <f ca="1">SUM(G195:G196)</f>
-        <v>10839.0137</v>
-      </c>
-      <c r="H197" s="99">
-        <f t="shared" ref="H197:K197" ca="1" si="22">SUM(H195:H196)</f>
-        <v>10939.703147036522</v>
-      </c>
-      <c r="I197" s="99">
-        <f t="shared" ca="1" si="22"/>
-        <v>11038.370049528223</v>
-      </c>
-      <c r="J197" s="99">
-        <f t="shared" ca="1" si="22"/>
-        <v>11135.055034239438</v>
-      </c>
-      <c r="K197" s="99">
-        <f t="shared" ca="1" si="22"/>
-        <v>11229.797911866455</v>
-      </c>
-    </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C198" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
+      <c r="F198" s="109">
+        <f ca="1">AVERAGE(F197,F195)</f>
+        <v>10786.967284999999</v>
+      </c>
       <c r="G198" s="109">
-        <f ca="1">AVERAGE(G197,G195)</f>
-        <v>10786.967284999999</v>
+        <f t="shared" ref="G198:J198" ca="1" si="41">AVERAGE(G197,G195)</f>
+        <v>10889.358423518261</v>
       </c>
       <c r="H198" s="109">
-        <f t="shared" ref="H198:K198" ca="1" si="23">AVERAGE(H197,H195)</f>
-        <v>10889.358423518261</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>10989.036598282371</v>
       </c>
       <c r="I198" s="109">
-        <f t="shared" ca="1" si="23"/>
-        <v>10989.036598282371</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>11086.71254188383</v>
       </c>
       <c r="J198" s="109">
-        <f t="shared" ca="1" si="23"/>
-        <v>11086.71254188383</v>
-      </c>
-      <c r="K198" s="109">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>11182.426473052947</v>
       </c>
     </row>
-    <row r="199" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="107" t="s">
-        <v>125</v>
-      </c>
+    <row r="199" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B199" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C199" s="77"/>
       <c r="D199" s="77"/>
       <c r="E199" s="77"/>
       <c r="F199" s="77"/>
@@ -6464,114 +6344,113 @@
       <c r="H199" s="77"/>
       <c r="I199" s="77"/>
       <c r="J199" s="77"/>
-      <c r="K199" s="77"/>
-      <c r="M199" s="33"/>
-    </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C200" s="12" t="s">
-        <v>28</v>
+      <c r="L199" s="33"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B200" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="109">
+        <f t="shared" ref="C200:J200" si="42">C31</f>
+        <v>30425</v>
       </c>
       <c r="D200" s="109">
-        <f>D31</f>
-        <v>30425</v>
+        <f t="shared" si="42"/>
+        <v>59248</v>
       </c>
       <c r="E200" s="109">
-        <f>E31</f>
-        <v>59248</v>
+        <f t="shared" si="42"/>
+        <v>77670</v>
       </c>
       <c r="F200" s="109">
-        <f>F31</f>
-        <v>77670</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>94627.414881043718</v>
       </c>
       <c r="G200" s="109">
-        <f ca="1">G31</f>
-        <v>94627.414881043718</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>107280.37591648466</v>
       </c>
       <c r="H200" s="109">
-        <f ca="1">H31</f>
-        <v>107280.37591648466</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>133605.39681804227</v>
       </c>
       <c r="I200" s="109">
-        <f ca="1">I31</f>
-        <v>133605.39681804227</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>149620.22445835467</v>
       </c>
       <c r="J200" s="109">
-        <f ca="1">J31</f>
-        <v>149620.22445835467</v>
-      </c>
-      <c r="K200" s="109">
-        <f ca="1">K31</f>
+        <f t="shared" ca="1" si="42"/>
         <v>167782.27622823761</v>
       </c>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C201" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E201" s="110">
-        <f>E200/D200-1</f>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B201" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D201" s="110">
+        <f>D200/C200-1</f>
         <v>0.9473459326211997</v>
       </c>
+      <c r="E201" s="111">
+        <f t="shared" ref="E201:J201" si="43">E200/D200-1</f>
+        <v>0.31093032676208487</v>
+      </c>
       <c r="F201" s="111">
-        <f t="shared" ref="F201:K201" si="24">F200/E200-1</f>
-        <v>0.31093032676208487</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>0.21832644368538334</v>
       </c>
       <c r="G201" s="111">
-        <f t="shared" ca="1" si="24"/>
-        <v>0.21832644368538334</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>0.13371348093305735</v>
       </c>
       <c r="H201" s="111">
-        <f t="shared" ca="1" si="24"/>
-        <v>0.13371348093305735</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>0.24538524102535808</v>
       </c>
       <c r="I201" s="111">
-        <f t="shared" ca="1" si="24"/>
-        <v>0.24538524102535808</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>0.11986662232007794</v>
       </c>
       <c r="J201" s="111">
-        <f t="shared" ca="1" si="24"/>
-        <v>0.11986662232007794</v>
-      </c>
-      <c r="K201" s="111">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.1213876789426831</v>
       </c>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="G204" s="102"/>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F204" s="102"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>#REF!=$C42</formula>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!=$B42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>#REF!=$C160</formula>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!=$B160</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>#REF!=$C174</formula>
+  <conditionalFormatting sqref="B174">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>#REF!=$B174</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{872952F3-3B38-48BE-9A44-9209D5D82FE3}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{872952F3-3B38-48BE-9A44-9209D5D82FE3}">
       <formula1>"$ bns except per share, $ mm except per share,$ in thousands except per share"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{35C7CF29-430E-4053-867D-3B7234993880}">
-      <formula1>$C$163:$C$165</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{35C7CF29-430E-4053-867D-3B7234993880}">
+      <formula1>$B$163:$B$165</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{3FBF02E9-EEA0-4C5F-82AA-BBBFE15012BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3FBF02E9-EEA0-4C5F-82AA-BBBFE15012BB}">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G66:K66" formula="1"/>
-    <ignoredError sqref="G79:G80" formulaRange="1"/>
+    <ignoredError sqref="F66:J66" formula="1"/>
+    <ignoredError sqref="F79:F80" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
